--- a/src/assets/employee_data.xlsx
+++ b/src/assets/employee_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantosun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantosun/Desktop/EmployeeApp/EmployeeApp/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DAC0933-642B-4F48-8868-56FFB49EF543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5ABB92-01CE-FA41-815C-046C42C00DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{D09E95F7-9735-AB45-9FE7-5270BCA82E28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="1423">
   <si>
     <t>first_name</t>
   </si>
@@ -628,22 +628,3690 @@
   </si>
   <si>
     <t>http://www.modernplasticscorp.co.uk</t>
+  </si>
+  <si>
+    <t>Mee</t>
+  </si>
+  <si>
+    <t>Lapinski</t>
+  </si>
+  <si>
+    <t>Galloway Electric Co Inc</t>
+  </si>
+  <si>
+    <t>9 Pengwern St</t>
+  </si>
+  <si>
+    <t>Marldon</t>
+  </si>
+  <si>
+    <t>TQ3 1SA</t>
+  </si>
+  <si>
+    <t>01939-815208</t>
+  </si>
+  <si>
+    <t>mee.lapinski@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.gallowayelectriccoinc.co.uk</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Gutierres</t>
+  </si>
+  <si>
+    <t>Niagara Custombuilt Mfg Co</t>
+  </si>
+  <si>
+    <t>4410 Tarlton St</t>
+  </si>
+  <si>
+    <t>Prestatyn Community</t>
+  </si>
+  <si>
+    <t>Denbighshire</t>
+  </si>
+  <si>
+    <t>LL19 9EG</t>
+  </si>
+  <si>
+    <t>01859-648598</t>
+  </si>
+  <si>
+    <t>peter_gutierres@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.niagaracustombuiltmfgco.co.uk</t>
+  </si>
+  <si>
+    <t>Octavio</t>
+  </si>
+  <si>
+    <t>Salvadore</t>
+  </si>
+  <si>
+    <t>Practical Periphrals</t>
+  </si>
+  <si>
+    <t>6949 Bourne St</t>
+  </si>
+  <si>
+    <t>Lye and Stourbridge North Ward</t>
+  </si>
+  <si>
+    <t>DY5 2QP</t>
+  </si>
+  <si>
+    <t>01743-139456</t>
+  </si>
+  <si>
+    <t>octavio.salvadore@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.practicalperiphrals.co.uk</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Teplica</t>
+  </si>
+  <si>
+    <t>Curtin, Patricia M Esq</t>
+  </si>
+  <si>
+    <t>148 Rembrandt St</t>
+  </si>
+  <si>
+    <t>Warlingham</t>
+  </si>
+  <si>
+    <t>Surrey</t>
+  </si>
+  <si>
+    <t>CR6 9SW</t>
+  </si>
+  <si>
+    <t>01583-287367</t>
+  </si>
+  <si>
+    <t>mteplica@teplica.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.curtinpatriciamesq.co.uk</t>
+  </si>
+  <si>
+    <t>Tamesha</t>
+  </si>
+  <si>
+    <t>Veigel</t>
+  </si>
+  <si>
+    <t>Wilhelm, James E Jr</t>
+  </si>
+  <si>
+    <t>2200 Nelson St #58</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Isle of Wight</t>
+  </si>
+  <si>
+    <t>PO30 5AL</t>
+  </si>
+  <si>
+    <t>01280-786847</t>
+  </si>
+  <si>
+    <t>tveigel@veigel.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.wilhelmjamesejr.co.uk</t>
+  </si>
+  <si>
+    <t>Tess</t>
+  </si>
+  <si>
+    <t>Sitra</t>
+  </si>
+  <si>
+    <t>Smart Signs</t>
+  </si>
+  <si>
+    <t>61 Rossett St</t>
+  </si>
+  <si>
+    <t>Chichester</t>
+  </si>
+  <si>
+    <t>West Sussex</t>
+  </si>
+  <si>
+    <t>PO19 1RH</t>
+  </si>
+  <si>
+    <t>01848-116775</t>
+  </si>
+  <si>
+    <t>tess_sitra@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.smartsigns.co.uk</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Kufner</t>
+  </si>
+  <si>
+    <t>Arctic Star Distributing Inc</t>
+  </si>
+  <si>
+    <t>41 Canning St</t>
+  </si>
+  <si>
+    <t>Steornabhagh a Deas Ward</t>
+  </si>
+  <si>
+    <t>Western Isles</t>
+  </si>
+  <si>
+    <t>HS1 2PZ</t>
+  </si>
+  <si>
+    <t>01604-718601</t>
+  </si>
+  <si>
+    <t>lkufner@kufner.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.arcticstardistributinginc.co.uk</t>
+  </si>
+  <si>
+    <t>Svetlana</t>
+  </si>
+  <si>
+    <t>Tauras</t>
+  </si>
+  <si>
+    <t>Lensbower, Gregory L Esq</t>
+  </si>
+  <si>
+    <t>8289 Cadogan St</t>
+  </si>
+  <si>
+    <t>South Ward</t>
+  </si>
+  <si>
+    <t>North Eart Lincolnshire</t>
+  </si>
+  <si>
+    <t>DN33 1AU</t>
+  </si>
+  <si>
+    <t>01509-121140</t>
+  </si>
+  <si>
+    <t>svetlana_tauras@tauras.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.lensbowergregorylesq.co.uk</t>
+  </si>
+  <si>
+    <t>Pok</t>
+  </si>
+  <si>
+    <t>Molaison</t>
+  </si>
+  <si>
+    <t>Portal Metal Products</t>
+  </si>
+  <si>
+    <t>211 Hobart St</t>
+  </si>
+  <si>
+    <t>Newquay</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>TR7 1LS</t>
+  </si>
+  <si>
+    <t>01315-284286</t>
+  </si>
+  <si>
+    <t>pok@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.portalmetalproducts.co.uk</t>
+  </si>
+  <si>
+    <t>Augustine</t>
+  </si>
+  <si>
+    <t>Growcock</t>
+  </si>
+  <si>
+    <t>Lynema, Cliff Cpa</t>
+  </si>
+  <si>
+    <t>114 Falkland St #8845</t>
+  </si>
+  <si>
+    <t>Brimpton</t>
+  </si>
+  <si>
+    <t>Berkshire</t>
+  </si>
+  <si>
+    <t>RG7 4RF</t>
+  </si>
+  <si>
+    <t>01926-108010</t>
+  </si>
+  <si>
+    <t>augustine.growcock@growcock.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.lynemacliffcpa.co.uk</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>J C S Machinery</t>
+  </si>
+  <si>
+    <t>1 Birkett St</t>
+  </si>
+  <si>
+    <t>Shard End Ward</t>
+  </si>
+  <si>
+    <t>B33 0NH</t>
+  </si>
+  <si>
+    <t>01307-667811</t>
+  </si>
+  <si>
+    <t>kquarto@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.jcsmachinery.co.uk</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Weisinger</t>
+  </si>
+  <si>
+    <t>Berick, Joseph G Esq</t>
+  </si>
+  <si>
+    <t>5147 Blackstone St</t>
+  </si>
+  <si>
+    <t>Letchworth South West Ward</t>
+  </si>
+  <si>
+    <t>Hertfordshire</t>
+  </si>
+  <si>
+    <t>SG6 3LE</t>
+  </si>
+  <si>
+    <t>01292-297245</t>
+  </si>
+  <si>
+    <t>reed_weisinger@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.berickjosephgesq.co.uk</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Zelaya</t>
+  </si>
+  <si>
+    <t>Jackson &amp; Heit Machine Co Inc</t>
+  </si>
+  <si>
+    <t>7 Shenstone St</t>
+  </si>
+  <si>
+    <t>Longhill Ward</t>
+  </si>
+  <si>
+    <t>Yorkshire, East (North Humbers</t>
+  </si>
+  <si>
+    <t>HU8 9PZ</t>
+  </si>
+  <si>
+    <t>01366-210656</t>
+  </si>
+  <si>
+    <t>german@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.jacksonheitmachinecoinc.co.uk</t>
+  </si>
+  <si>
+    <t>Milly</t>
+  </si>
+  <si>
+    <t>Savidge</t>
+  </si>
+  <si>
+    <t>Bridgeway Plan For Health</t>
+  </si>
+  <si>
+    <t>129 Alexander Pope St</t>
+  </si>
+  <si>
+    <t>Franche Ward</t>
+  </si>
+  <si>
+    <t>Hereford and Worcester</t>
+  </si>
+  <si>
+    <t>DY11 9BW</t>
+  </si>
+  <si>
+    <t>01421-132652</t>
+  </si>
+  <si>
+    <t>milly@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.bridgewayplanforhealth.co.uk</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>Wa Inst For Plcy Studies</t>
+  </si>
+  <si>
+    <t>2 Birchfield Rd</t>
+  </si>
+  <si>
+    <t>Whittington</t>
+  </si>
+  <si>
+    <t>Shropshire</t>
+  </si>
+  <si>
+    <t>SY11 4PH</t>
+  </si>
+  <si>
+    <t>01405-648623</t>
+  </si>
+  <si>
+    <t>luis@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wainstforplcystudies.co.uk</t>
+  </si>
+  <si>
+    <t>Ciara</t>
+  </si>
+  <si>
+    <t>Cobbley</t>
+  </si>
+  <si>
+    <t>Wmgl 101.7 Fm</t>
+  </si>
+  <si>
+    <t>7523 Kempton Rd</t>
+  </si>
+  <si>
+    <t>Cockerton West Ward</t>
+  </si>
+  <si>
+    <t>Darlington</t>
+  </si>
+  <si>
+    <t>DL3 0JF</t>
+  </si>
+  <si>
+    <t>01809-443217</t>
+  </si>
+  <si>
+    <t>ciara_cobbley@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wmglfm.co.uk</t>
+  </si>
+  <si>
+    <t>Alethea</t>
+  </si>
+  <si>
+    <t>Mould</t>
+  </si>
+  <si>
+    <t>Hughlett, Henry T Jr</t>
+  </si>
+  <si>
+    <t>6305 Elstow St</t>
+  </si>
+  <si>
+    <t>Castle Ward</t>
+  </si>
+  <si>
+    <t>BN12 6PR</t>
+  </si>
+  <si>
+    <t>01351-868965</t>
+  </si>
+  <si>
+    <t>alethea@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.hughletthenrytjr.co.uk</t>
+  </si>
+  <si>
+    <t>Margurite</t>
+  </si>
+  <si>
+    <t>Loperfido</t>
+  </si>
+  <si>
+    <t>Penrose Place Pharmacy Inc</t>
+  </si>
+  <si>
+    <t>218 Greenbank Drive</t>
+  </si>
+  <si>
+    <t>Devizes</t>
+  </si>
+  <si>
+    <t>Wiltshire</t>
+  </si>
+  <si>
+    <t>SN10 3DU</t>
+  </si>
+  <si>
+    <t>01640-661191</t>
+  </si>
+  <si>
+    <t>mloperfido@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.penroseplacepharmacyinc.co.uk</t>
+  </si>
+  <si>
+    <t>Vernice</t>
+  </si>
+  <si>
+    <t>Sperazza</t>
+  </si>
+  <si>
+    <t>Novak, Alan Paul Esq</t>
+  </si>
+  <si>
+    <t>8921 Forge St</t>
+  </si>
+  <si>
+    <t>Colnbrook with Poyle</t>
+  </si>
+  <si>
+    <t>SL3 0PY</t>
+  </si>
+  <si>
+    <t>01765-519419</t>
+  </si>
+  <si>
+    <t>vernice@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.novakalanpaulesq.co.uk</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Rawicki</t>
+  </si>
+  <si>
+    <t>B &amp; S Tool And Cutter Svc Inc</t>
+  </si>
+  <si>
+    <t>3060 St Ambrose Grove #261</t>
+  </si>
+  <si>
+    <t>Aldridge Central and South War</t>
+  </si>
+  <si>
+    <t>WS9 8UR</t>
+  </si>
+  <si>
+    <t>01286-258121</t>
+  </si>
+  <si>
+    <t>vicente_rawicki@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.bstoolandcuttersvcinc.co.uk</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Cua</t>
+  </si>
+  <si>
+    <t>Berry, John M Esq</t>
+  </si>
+  <si>
+    <t>8388 Bessemer St #5</t>
+  </si>
+  <si>
+    <t>East Putney Ward</t>
+  </si>
+  <si>
+    <t>Greater London</t>
+  </si>
+  <si>
+    <t>SW15 2RP</t>
+  </si>
+  <si>
+    <t>01818-980469</t>
+  </si>
+  <si>
+    <t>craig@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.berryjohnmesq.co.uk</t>
+  </si>
+  <si>
+    <t>Jenise</t>
+  </si>
+  <si>
+    <t>Dulle</t>
+  </si>
+  <si>
+    <t>Alden, Michael H Esq</t>
+  </si>
+  <si>
+    <t>87 Pownall Sq</t>
+  </si>
+  <si>
+    <t>Sawston</t>
+  </si>
+  <si>
+    <t>Cambridgeshire</t>
+  </si>
+  <si>
+    <t>CB22 3BB</t>
+  </si>
+  <si>
+    <t>01572-193368</t>
+  </si>
+  <si>
+    <t>jenise.dulle@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.aldenmichaelhesq.co.uk</t>
+  </si>
+  <si>
+    <t>Marylin</t>
+  </si>
+  <si>
+    <t>Cornelison</t>
+  </si>
+  <si>
+    <t>Ernest E Heuer &amp; Company Pc</t>
+  </si>
+  <si>
+    <t>39 Wye St</t>
+  </si>
+  <si>
+    <t>Wakefield North Ward</t>
+  </si>
+  <si>
+    <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>WF1 1DR</t>
+  </si>
+  <si>
+    <t>01295-331807</t>
+  </si>
+  <si>
+    <t>marylin_cornelison@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.ernesteheuercompanypc.co.uk</t>
+  </si>
+  <si>
+    <t>Marget</t>
+  </si>
+  <si>
+    <t>Gunst</t>
+  </si>
+  <si>
+    <t>Frankel, Stephen</t>
+  </si>
+  <si>
+    <t>2732 Bostock St #1</t>
+  </si>
+  <si>
+    <t>St. Enoder</t>
+  </si>
+  <si>
+    <t>TR9 6NJ</t>
+  </si>
+  <si>
+    <t>01512-975244</t>
+  </si>
+  <si>
+    <t>mgunst@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.frankelstephen.co.uk</t>
+  </si>
+  <si>
+    <t>Annett</t>
+  </si>
+  <si>
+    <t>Bunselmeyer</t>
+  </si>
+  <si>
+    <t>Guynes Design Inc</t>
+  </si>
+  <si>
+    <t>5562 Fairfield St #847</t>
+  </si>
+  <si>
+    <t>Ryde</t>
+  </si>
+  <si>
+    <t>PO33 1HH</t>
+  </si>
+  <si>
+    <t>01333-972244</t>
+  </si>
+  <si>
+    <t>abunselmeyer@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.guynesdesigninc.co.uk</t>
+  </si>
+  <si>
+    <t>Kip</t>
+  </si>
+  <si>
+    <t>Turziano</t>
+  </si>
+  <si>
+    <t>General Appraisal Co</t>
+  </si>
+  <si>
+    <t>37 Meadow St</t>
+  </si>
+  <si>
+    <t>Laindon Park Ward</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>SS15 6LE</t>
+  </si>
+  <si>
+    <t>01222-164469</t>
+  </si>
+  <si>
+    <t>kip.turziano@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.generalappraisalco.co.uk</t>
+  </si>
+  <si>
+    <t>Melina</t>
+  </si>
+  <si>
+    <t>Orizabal</t>
+  </si>
+  <si>
+    <t>Sheraton Inn Ocean Front</t>
+  </si>
+  <si>
+    <t>3 Nevison St</t>
+  </si>
+  <si>
+    <t>Lymington and Pennington</t>
+  </si>
+  <si>
+    <t>SO41 1DL</t>
+  </si>
+  <si>
+    <t>01245-559333</t>
+  </si>
+  <si>
+    <t>melina@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.sheratoninnoceanfront.co.uk</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Clapham</t>
+  </si>
+  <si>
+    <t>Cooper Myers Y Co</t>
+  </si>
+  <si>
+    <t>5662 William Moult St</t>
+  </si>
+  <si>
+    <t>Aylesbury</t>
+  </si>
+  <si>
+    <t>HP21 8PP</t>
+  </si>
+  <si>
+    <t>01493-245349</t>
+  </si>
+  <si>
+    <t>tclapham@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.coopermyersyco.co.uk</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Devereux</t>
+  </si>
+  <si>
+    <t>Cash 4 Checks</t>
+  </si>
+  <si>
+    <t>3 North View #35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burmantofts and Richmond Hill </t>
+  </si>
+  <si>
+    <t>LS9 7JH</t>
+  </si>
+  <si>
+    <t>01334-807355</t>
+  </si>
+  <si>
+    <t>ldevereux@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.cashchecks.co.uk</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Aschoff</t>
+  </si>
+  <si>
+    <t>Charlotte Chamber</t>
+  </si>
+  <si>
+    <t>135 Opie St</t>
+  </si>
+  <si>
+    <t>Howard Town Ward</t>
+  </si>
+  <si>
+    <t>SK13 8BB</t>
+  </si>
+  <si>
+    <t>01823-517315</t>
+  </si>
+  <si>
+    <t>paschoff@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.charlottechamber.co.uk</t>
+  </si>
+  <si>
+    <t>Carrol</t>
+  </si>
+  <si>
+    <t>Kunimitsu</t>
+  </si>
+  <si>
+    <t>Kisc 98 Kiss Fm</t>
+  </si>
+  <si>
+    <t>1 Askew St</t>
+  </si>
+  <si>
+    <t>Farnham</t>
+  </si>
+  <si>
+    <t>GU9 9AS</t>
+  </si>
+  <si>
+    <t>01415-364461</t>
+  </si>
+  <si>
+    <t>carrol_kunimitsu@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.kisckissfm.co.uk</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>Mosseri</t>
+  </si>
+  <si>
+    <t>Schwartzbard, Gail L Esq</t>
+  </si>
+  <si>
+    <t>4 Burnall St</t>
+  </si>
+  <si>
+    <t>Beeston West Ward</t>
+  </si>
+  <si>
+    <t>Nottinghamshire</t>
+  </si>
+  <si>
+    <t>NG9 1AE</t>
+  </si>
+  <si>
+    <t>01231-806535</t>
+  </si>
+  <si>
+    <t>alba@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.schwartzbardgaillesq.co.uk</t>
+  </si>
+  <si>
+    <t>Domonique</t>
+  </si>
+  <si>
+    <t>Sandlin</t>
+  </si>
+  <si>
+    <t>Marketing Horizons Inc</t>
+  </si>
+  <si>
+    <t>95 Denton St</t>
+  </si>
+  <si>
+    <t>Wollaton West Ward</t>
+  </si>
+  <si>
+    <t>NG8 2NB</t>
+  </si>
+  <si>
+    <t>01987-728730</t>
+  </si>
+  <si>
+    <t>domonique@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.marketinghorizonsinc.co.uk</t>
+  </si>
+  <si>
+    <t>Rory</t>
+  </si>
+  <si>
+    <t>Neufville</t>
+  </si>
+  <si>
+    <t>Brady, Brad J Esq</t>
+  </si>
+  <si>
+    <t>5 Chadwick St #7</t>
+  </si>
+  <si>
+    <t>Llangeler Community</t>
+  </si>
+  <si>
+    <t>Ceredigion</t>
+  </si>
+  <si>
+    <t>SA44 5HF</t>
+  </si>
+  <si>
+    <t>01442-700486</t>
+  </si>
+  <si>
+    <t>rory_neufville@neufville.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.bradybradjesq.co.uk</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>Klingaman</t>
+  </si>
+  <si>
+    <t>Welders Supply</t>
+  </si>
+  <si>
+    <t>67 Micawber St</t>
+  </si>
+  <si>
+    <t>Brockley Ward</t>
+  </si>
+  <si>
+    <t>SE14 6RQ</t>
+  </si>
+  <si>
+    <t>01523-775781</t>
+  </si>
+  <si>
+    <t>dklingaman@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.welderssupply.co.uk</t>
+  </si>
+  <si>
+    <t>Lyndia</t>
+  </si>
+  <si>
+    <t>Moonshower</t>
+  </si>
+  <si>
+    <t>Bomarko Inc</t>
+  </si>
+  <si>
+    <t>43 Williamson St #7995</t>
+  </si>
+  <si>
+    <t>Meads Ward</t>
+  </si>
+  <si>
+    <t>East Sussex</t>
+  </si>
+  <si>
+    <t>BN20 7HB</t>
+  </si>
+  <si>
+    <t>01789-132579</t>
+  </si>
+  <si>
+    <t>lyndia_moonshower@moonshower.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.bomarkoinc.co.uk</t>
+  </si>
+  <si>
+    <t>Jules</t>
+  </si>
+  <si>
+    <t>Hiltner</t>
+  </si>
+  <si>
+    <t>Benitez, Brigida Esq</t>
+  </si>
+  <si>
+    <t>5 Howe St</t>
+  </si>
+  <si>
+    <t>EH52 6NF</t>
+  </si>
+  <si>
+    <t>01814-878359</t>
+  </si>
+  <si>
+    <t>jules@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.benitezbrigidaesq.co.uk</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t>Kopczynski</t>
+  </si>
+  <si>
+    <t>Kennedy Scales Inc</t>
+  </si>
+  <si>
+    <t>7 Cheapside #9</t>
+  </si>
+  <si>
+    <t>St. Ive</t>
+  </si>
+  <si>
+    <t>PL14 5PA</t>
+  </si>
+  <si>
+    <t>01639-518104</t>
+  </si>
+  <si>
+    <t>dkopczynski@kopczynski.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.kennedyscalesinc.co.uk</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>Salta</t>
+  </si>
+  <si>
+    <t>Barajas &amp; Bustamante Archl</t>
+  </si>
+  <si>
+    <t>85 Bridgewater St</t>
+  </si>
+  <si>
+    <t>B34 7BP</t>
+  </si>
+  <si>
+    <t>01376-851958</t>
+  </si>
+  <si>
+    <t>justine_salta@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.barajasbustamantearchl.co.uk</t>
+  </si>
+  <si>
+    <t>Chantay</t>
+  </si>
+  <si>
+    <t>Kamens</t>
+  </si>
+  <si>
+    <t>Brewster Wallcoverings Co</t>
+  </si>
+  <si>
+    <t>763 Parkfield Rd</t>
+  </si>
+  <si>
+    <t>Norton Canes</t>
+  </si>
+  <si>
+    <t>Staffordshire</t>
+  </si>
+  <si>
+    <t>WS11 9RH</t>
+  </si>
+  <si>
+    <t>01245-146126</t>
+  </si>
+  <si>
+    <t>ckamens@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.brewsterwallcoveringsco.co.uk</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t>Chisum</t>
+  </si>
+  <si>
+    <t>Bohs Well Drilling Inc</t>
+  </si>
+  <si>
+    <t>662 Grove Park</t>
+  </si>
+  <si>
+    <t>Bulwell Ward</t>
+  </si>
+  <si>
+    <t>NG6 8RG</t>
+  </si>
+  <si>
+    <t>01702-946496</t>
+  </si>
+  <si>
+    <t>tequila.chisum@chisum.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.bohswelldrillinginc.co.uk</t>
+  </si>
+  <si>
+    <t>Maybelle</t>
+  </si>
+  <si>
+    <t>Consolazio</t>
+  </si>
+  <si>
+    <t>Gavin, Lee W Esq</t>
+  </si>
+  <si>
+    <t>5410 Lawton St</t>
+  </si>
+  <si>
+    <t>Treorchy Community</t>
+  </si>
+  <si>
+    <t>Rhondda Cynon Taff</t>
+  </si>
+  <si>
+    <t>CF42 6PL</t>
+  </si>
+  <si>
+    <t>01351-200904</t>
+  </si>
+  <si>
+    <t>mconsolazio@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.gavinleewesq.co.uk</t>
+  </si>
+  <si>
+    <t>Margarett</t>
+  </si>
+  <si>
+    <t>Bairo</t>
+  </si>
+  <si>
+    <t>Reid, Carleton B Esq</t>
+  </si>
+  <si>
+    <t>3 August Rd</t>
+  </si>
+  <si>
+    <t>Maybury and Sheerwater Ward</t>
+  </si>
+  <si>
+    <t>GU21 5QL</t>
+  </si>
+  <si>
+    <t>01903-424890</t>
+  </si>
+  <si>
+    <t>margarett@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.reidcarletonbesq.co.uk</t>
+  </si>
+  <si>
+    <t>Janessa</t>
+  </si>
+  <si>
+    <t>Noonon</t>
+  </si>
+  <si>
+    <t>Canterbury, Christopher C</t>
+  </si>
+  <si>
+    <t>476 Starkie St</t>
+  </si>
+  <si>
+    <t>Westgate Ward</t>
+  </si>
+  <si>
+    <t>Gloucestershire</t>
+  </si>
+  <si>
+    <t>GL1 1QW</t>
+  </si>
+  <si>
+    <t>01841-979075</t>
+  </si>
+  <si>
+    <t>jnoonon@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.canterburychristopherc.co.uk</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Cowser</t>
+  </si>
+  <si>
+    <t>Omni Mandalay</t>
+  </si>
+  <si>
+    <t>6448 Tillard St</t>
+  </si>
+  <si>
+    <t>Conisbrough and Denaby Ward</t>
+  </si>
+  <si>
+    <t>South Yorkshire</t>
+  </si>
+  <si>
+    <t>DN12 4JF</t>
+  </si>
+  <si>
+    <t>01580-134516</t>
+  </si>
+  <si>
+    <t>sol@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.omnimandalay.co.uk</t>
+  </si>
+  <si>
+    <t>Louann</t>
+  </si>
+  <si>
+    <t>Smethers</t>
+  </si>
+  <si>
+    <t>Lba Savings Bank</t>
+  </si>
+  <si>
+    <t>3055 Creswick St</t>
+  </si>
+  <si>
+    <t>Newbold and Brownsover Ward</t>
+  </si>
+  <si>
+    <t>Warwickshire</t>
+  </si>
+  <si>
+    <t>CV21 1LN</t>
+  </si>
+  <si>
+    <t>01488-872531</t>
+  </si>
+  <si>
+    <t>louann@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.lbasavingsbank.co.uk</t>
+  </si>
+  <si>
+    <t>Lindsay</t>
+  </si>
+  <si>
+    <t>Yadao</t>
+  </si>
+  <si>
+    <t>Lutz, Christopher T Esq</t>
+  </si>
+  <si>
+    <t>7 Jolliffe St</t>
+  </si>
+  <si>
+    <t>Middlewich</t>
+  </si>
+  <si>
+    <t>Cheshire</t>
+  </si>
+  <si>
+    <t>CW10 9GB</t>
+  </si>
+  <si>
+    <t>01481-295251</t>
+  </si>
+  <si>
+    <t>lindsay_yadao@yadao.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.lutzchristophertesq.co.uk</t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Hanton</t>
+  </si>
+  <si>
+    <t>Association Of Art Museum Dir</t>
+  </si>
+  <si>
+    <t>1175 Greig St</t>
+  </si>
+  <si>
+    <t>St. Marys Ward</t>
+  </si>
+  <si>
+    <t>Greater Manchester</t>
+  </si>
+  <si>
+    <t>M25 0ZN</t>
+  </si>
+  <si>
+    <t>01705-208145</t>
+  </si>
+  <si>
+    <t>malika@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.associationofartmuseumdir.co.uk</t>
+  </si>
+  <si>
+    <t>Stefany</t>
+  </si>
+  <si>
+    <t>Ferenz</t>
+  </si>
+  <si>
+    <t>L &amp; L Sales Co Inc</t>
+  </si>
+  <si>
+    <t>636 Portland Place</t>
+  </si>
+  <si>
+    <t>Gresham Ward</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>TS1 4RG</t>
+  </si>
+  <si>
+    <t>01704-986828</t>
+  </si>
+  <si>
+    <t>stefany@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.llsalescoinc.co.uk</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Cratch</t>
+  </si>
+  <si>
+    <t>Cavuto, John A</t>
+  </si>
+  <si>
+    <t>41 Benedict St</t>
+  </si>
+  <si>
+    <t>Aldborough Ward</t>
+  </si>
+  <si>
+    <t>IG2 7QG</t>
+  </si>
+  <si>
+    <t>01695-305111</t>
+  </si>
+  <si>
+    <t>acratch@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.cavutojohna.co.uk</t>
+  </si>
+  <si>
+    <t>Giuseppe</t>
+  </si>
+  <si>
+    <t>Rohaley</t>
+  </si>
+  <si>
+    <t>Pacific Coast Packaging</t>
+  </si>
+  <si>
+    <t>62 Margaret St</t>
+  </si>
+  <si>
+    <t>Royal Hospital Ward</t>
+  </si>
+  <si>
+    <t>SW3 4ND</t>
+  </si>
+  <si>
+    <t>01866-845669</t>
+  </si>
+  <si>
+    <t>giuseppe@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.pacificcoastpackaging.co.uk</t>
+  </si>
+  <si>
+    <t>Kiera</t>
+  </si>
+  <si>
+    <t>Bassil</t>
+  </si>
+  <si>
+    <t>Storm Eye Institute</t>
+  </si>
+  <si>
+    <t>5152 Sophia St</t>
+  </si>
+  <si>
+    <t>Woodstock Ward</t>
+  </si>
+  <si>
+    <t>BS15 8DS</t>
+  </si>
+  <si>
+    <t>01783-446052</t>
+  </si>
+  <si>
+    <t>kbassil@bassil.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.stormeyeinstitute.co.uk</t>
+  </si>
+  <si>
+    <t>Wendell</t>
+  </si>
+  <si>
+    <t>Rubano</t>
+  </si>
+  <si>
+    <t>Automation Engrg &amp; Mfg Inc</t>
+  </si>
+  <si>
+    <t>1 Back Canning St</t>
+  </si>
+  <si>
+    <t>Dunblane and Bridge of Allan W</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>FK9 4LD</t>
+  </si>
+  <si>
+    <t>01752-386691</t>
+  </si>
+  <si>
+    <t>wendell_rubano@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.automationengrgmfginc.co.uk</t>
+  </si>
+  <si>
+    <t>Stevie</t>
+  </si>
+  <si>
+    <t>Stifflemire</t>
+  </si>
+  <si>
+    <t>Packaging Corp Of America</t>
+  </si>
+  <si>
+    <t>9 Gradwell St</t>
+  </si>
+  <si>
+    <t>Kempshott Ward</t>
+  </si>
+  <si>
+    <t>RG22 5HA</t>
+  </si>
+  <si>
+    <t>01411-169215</t>
+  </si>
+  <si>
+    <t>stevie_stifflemire@stifflemire.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.packagingcorpofamerica.co.uk</t>
+  </si>
+  <si>
+    <t>Yun</t>
+  </si>
+  <si>
+    <t>Paletta</t>
+  </si>
+  <si>
+    <t>Goe, Douglas E Esq</t>
+  </si>
+  <si>
+    <t>9205 Upper Hill St</t>
+  </si>
+  <si>
+    <t>City and Hunslet Ward</t>
+  </si>
+  <si>
+    <t>LS1 5QE</t>
+  </si>
+  <si>
+    <t>01374-255198</t>
+  </si>
+  <si>
+    <t>yun_paletta@paletta.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.goedouglaseesq.co.uk</t>
+  </si>
+  <si>
+    <t>Brittani</t>
+  </si>
+  <si>
+    <t>Thurm</t>
+  </si>
+  <si>
+    <t>Burgess Steel Products Corp</t>
+  </si>
+  <si>
+    <t>9 Horatio St</t>
+  </si>
+  <si>
+    <t>Ruckinge</t>
+  </si>
+  <si>
+    <t>TN26 2PN</t>
+  </si>
+  <si>
+    <t>01970-890023</t>
+  </si>
+  <si>
+    <t>bthurm@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.burgesssteelproductscorp.co.uk</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Tipton &amp; Hurst</t>
+  </si>
+  <si>
+    <t>61 Miriam St</t>
+  </si>
+  <si>
+    <t>Abbey Road Ward</t>
+  </si>
+  <si>
+    <t>NW8 9BD</t>
+  </si>
+  <si>
+    <t>01703-435212</t>
+  </si>
+  <si>
+    <t>billy.venus@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.tiptonhurst.co.uk</t>
+  </si>
+  <si>
+    <t>Brynn</t>
+  </si>
+  <si>
+    <t>Elkan</t>
+  </si>
+  <si>
+    <t>A O Hardee &amp; Son Inc</t>
+  </si>
+  <si>
+    <t>67 Pulford St</t>
+  </si>
+  <si>
+    <t>Prittlewell Ward</t>
+  </si>
+  <si>
+    <t>SS2 6NL</t>
+  </si>
+  <si>
+    <t>01345-625433</t>
+  </si>
+  <si>
+    <t>brynn@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.aohardeesoninc.co.uk</t>
+  </si>
+  <si>
+    <t>Elroy</t>
+  </si>
+  <si>
+    <t>Piehler</t>
+  </si>
+  <si>
+    <t>Jonson, Geo D Esq</t>
+  </si>
+  <si>
+    <t>821 Pembroke Place</t>
+  </si>
+  <si>
+    <t>Kirkby Stephen</t>
+  </si>
+  <si>
+    <t>Cumbria</t>
+  </si>
+  <si>
+    <t>CA17 4RZ</t>
+  </si>
+  <si>
+    <t>01586-387018</t>
+  </si>
+  <si>
+    <t>epiehler@piehler.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.jonsongeodesq.co.uk</t>
+  </si>
+  <si>
+    <t>Anisha</t>
+  </si>
+  <si>
+    <t>Shulick</t>
+  </si>
+  <si>
+    <t>Dale Yoder Clu Life Hlth &amp; Bus</t>
+  </si>
+  <si>
+    <t>3 Alder St</t>
+  </si>
+  <si>
+    <t>Eaton Park Ward</t>
+  </si>
+  <si>
+    <t>Stoke-on-Trent</t>
+  </si>
+  <si>
+    <t>ST2 9AW</t>
+  </si>
+  <si>
+    <t>01268-233798</t>
+  </si>
+  <si>
+    <t>ashulick@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.daleyoderclulifehlthbus.co.uk</t>
+  </si>
+  <si>
+    <t>Bettina</t>
+  </si>
+  <si>
+    <t>Kham</t>
+  </si>
+  <si>
+    <t>Council Of Cmnty Blood Ctrs</t>
+  </si>
+  <si>
+    <t>80 Morecambe St</t>
+  </si>
+  <si>
+    <t>Bishop Auckland</t>
+  </si>
+  <si>
+    <t>County Durham</t>
+  </si>
+  <si>
+    <t>DL14 6NG</t>
+  </si>
+  <si>
+    <t>01340-622388</t>
+  </si>
+  <si>
+    <t>bettina.kham@kham.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.councilofcmntybloodctrs.co.uk</t>
+  </si>
+  <si>
+    <t>Velda</t>
+  </si>
+  <si>
+    <t>Mancilla</t>
+  </si>
+  <si>
+    <t>Tremont, Michael A Esq</t>
+  </si>
+  <si>
+    <t>7866 Renshaw St #283</t>
+  </si>
+  <si>
+    <t>Falmouth</t>
+  </si>
+  <si>
+    <t>TR11 4QQ</t>
+  </si>
+  <si>
+    <t>01368-456268</t>
+  </si>
+  <si>
+    <t>velda_mancilla@mancilla.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.tremontmichaelaesq.co.uk</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Brace</t>
+  </si>
+  <si>
+    <t>Trautman, Eileen Esq</t>
+  </si>
+  <si>
+    <t>658 Lake St</t>
+  </si>
+  <si>
+    <t>Malmesbury</t>
+  </si>
+  <si>
+    <t>SN16 0XZ</t>
+  </si>
+  <si>
+    <t>01631-454193</t>
+  </si>
+  <si>
+    <t>marta.brace@brace.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.trautmaneileenesq.co.uk</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Vanwyhe</t>
+  </si>
+  <si>
+    <t>Office Service Co</t>
+  </si>
+  <si>
+    <t>5382 Redfern St</t>
+  </si>
+  <si>
+    <t>West End Ward</t>
+  </si>
+  <si>
+    <t>W1J 0QH</t>
+  </si>
+  <si>
+    <t>01728-150282</t>
+  </si>
+  <si>
+    <t>juan_vanwyhe@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.officeserviceco.co.uk</t>
+  </si>
+  <si>
+    <t>Lelia</t>
+  </si>
+  <si>
+    <t>Filion</t>
+  </si>
+  <si>
+    <t>Alphabetland Pre School Center</t>
+  </si>
+  <si>
+    <t>45 Bidder St #38</t>
+  </si>
+  <si>
+    <t>Town Ward</t>
+  </si>
+  <si>
+    <t>EN1 3HT</t>
+  </si>
+  <si>
+    <t>01322-715065</t>
+  </si>
+  <si>
+    <t>lelia.filion@filion.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.alphabetlandpreschoolcenter.co.uk</t>
+  </si>
+  <si>
+    <t>Una</t>
+  </si>
+  <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Shamrock Food Service</t>
+  </si>
+  <si>
+    <t>6766 Britton St #379</t>
+  </si>
+  <si>
+    <t>Crompton Ward</t>
+  </si>
+  <si>
+    <t>BL1 3EX</t>
+  </si>
+  <si>
+    <t>01308-356704</t>
+  </si>
+  <si>
+    <t>ufrankel@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.shamrockfoodservice.co.uk</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Joulwan</t>
+  </si>
+  <si>
+    <t>Central Hrdwr &amp; Elec Corp</t>
+  </si>
+  <si>
+    <t>7 Lear Rd</t>
+  </si>
+  <si>
+    <t>Stroud</t>
+  </si>
+  <si>
+    <t>GU32 3PQ</t>
+  </si>
+  <si>
+    <t>01961-802899</t>
+  </si>
+  <si>
+    <t>eva.joulwan@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.centralhrdwreleccorp.co.uk</t>
+  </si>
+  <si>
+    <t>Mammie</t>
+  </si>
+  <si>
+    <t>Dormanen</t>
+  </si>
+  <si>
+    <t>Matt Parrott &amp; Sons Co</t>
+  </si>
+  <si>
+    <t>2577 Toxteth St #5</t>
+  </si>
+  <si>
+    <t>Overton Ward</t>
+  </si>
+  <si>
+    <t>Lancashire</t>
+  </si>
+  <si>
+    <t>BB6 7UN</t>
+  </si>
+  <si>
+    <t>01439-184366</t>
+  </si>
+  <si>
+    <t>mammie_dormanen@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.mattparrottsonsco.co.uk</t>
+  </si>
+  <si>
+    <t>Jeannetta</t>
+  </si>
+  <si>
+    <t>Coolidge</t>
+  </si>
+  <si>
+    <t>Tiny Tots Originals Div</t>
+  </si>
+  <si>
+    <t>761 Cockerell St #1</t>
+  </si>
+  <si>
+    <t>Midway Ward</t>
+  </si>
+  <si>
+    <t>DE11 0HE</t>
+  </si>
+  <si>
+    <t>01440-276155</t>
+  </si>
+  <si>
+    <t>jeannetta_coolidge@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.tinytotsoriginalsdiv.co.uk</t>
+  </si>
+  <si>
+    <t>Elbert</t>
+  </si>
+  <si>
+    <t>Drawe</t>
+  </si>
+  <si>
+    <t>Lovitch, Alan F</t>
+  </si>
+  <si>
+    <t>9 Cypress St</t>
+  </si>
+  <si>
+    <t>Washington East Ward</t>
+  </si>
+  <si>
+    <t>Tyne and Wear</t>
+  </si>
+  <si>
+    <t>NE38 9AQ</t>
+  </si>
+  <si>
+    <t>01496-526674</t>
+  </si>
+  <si>
+    <t>edrawe@drawe.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.lovitchalanf.co.uk</t>
+  </si>
+  <si>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>Gazzola</t>
+  </si>
+  <si>
+    <t>Wise Industries</t>
+  </si>
+  <si>
+    <t>6 Romilly St</t>
+  </si>
+  <si>
+    <t>Walkergate Ward</t>
+  </si>
+  <si>
+    <t>NE6 4YH</t>
+  </si>
+  <si>
+    <t>01342-706893</t>
+  </si>
+  <si>
+    <t>lenny.gazzola@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.wiseindustries.co.uk</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Alpheaus</t>
+  </si>
+  <si>
+    <t>East County Process</t>
+  </si>
+  <si>
+    <t>51 St Anne St #12</t>
+  </si>
+  <si>
+    <t>Stratfield Mortimer</t>
+  </si>
+  <si>
+    <t>RG7 3RA</t>
+  </si>
+  <si>
+    <t>01381-836777</t>
+  </si>
+  <si>
+    <t>mira.alpheaus@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.eastcountyprocess.co.uk</t>
+  </si>
+  <si>
+    <t>Cathern</t>
+  </si>
+  <si>
+    <t>Ungar</t>
+  </si>
+  <si>
+    <t>Agopgee Enterprises Inc</t>
+  </si>
+  <si>
+    <t>823 Idris St</t>
+  </si>
+  <si>
+    <t>Selston</t>
+  </si>
+  <si>
+    <t>NG16 5LG</t>
+  </si>
+  <si>
+    <t>01266-671305</t>
+  </si>
+  <si>
+    <t>cathern.ungar@ungar.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.agopgeeenterprisesinc.co.uk</t>
+  </si>
+  <si>
+    <t>Malcom</t>
+  </si>
+  <si>
+    <t>Fleckles</t>
+  </si>
+  <si>
+    <t>L Winik &amp; Associates Inc</t>
+  </si>
+  <si>
+    <t>8764 Nickleby St #877</t>
+  </si>
+  <si>
+    <t>Govan Ward</t>
+  </si>
+  <si>
+    <t>Glasgow City</t>
+  </si>
+  <si>
+    <t>G51 1BQ</t>
+  </si>
+  <si>
+    <t>01937-120539</t>
+  </si>
+  <si>
+    <t>malcom.fleckles@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.lwinikassociatesinc.co.uk</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Damato</t>
+  </si>
+  <si>
+    <t>Rosati, Marc D Esq</t>
+  </si>
+  <si>
+    <t>5344 Bengel St #5</t>
+  </si>
+  <si>
+    <t>Millwall Ward</t>
+  </si>
+  <si>
+    <t>E14 5DR</t>
+  </si>
+  <si>
+    <t>01440-164945</t>
+  </si>
+  <si>
+    <t>mdamato@damato.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.rosatimarcdesq.co.uk</t>
+  </si>
+  <si>
+    <t>Leota</t>
+  </si>
+  <si>
+    <t>Fletchen</t>
+  </si>
+  <si>
+    <t>Rust Evader Corp</t>
+  </si>
+  <si>
+    <t>8880 Great Howard St #7750</t>
+  </si>
+  <si>
+    <t>Sefton</t>
+  </si>
+  <si>
+    <t>Merseyside</t>
+  </si>
+  <si>
+    <t>L29 7WD</t>
+  </si>
+  <si>
+    <t>01414-780251</t>
+  </si>
+  <si>
+    <t>lfletchen@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.rustevadercorp.co.uk</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Gutoski</t>
+  </si>
+  <si>
+    <t>Budget Annex</t>
+  </si>
+  <si>
+    <t>9 Oakleigh</t>
+  </si>
+  <si>
+    <t>Lancing</t>
+  </si>
+  <si>
+    <t>BN15 9BN</t>
+  </si>
+  <si>
+    <t>01929-400879</t>
+  </si>
+  <si>
+    <t>berry@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.budgetannex.co.uk</t>
+  </si>
+  <si>
+    <t>Meghan</t>
+  </si>
+  <si>
+    <t>Riherd</t>
+  </si>
+  <si>
+    <t>Kiqo Pure Gold Oldies 104 Fm</t>
+  </si>
+  <si>
+    <t>83 Denbigh St Bootle</t>
+  </si>
+  <si>
+    <t>St. Gluvias</t>
+  </si>
+  <si>
+    <t>TR3 7AZ</t>
+  </si>
+  <si>
+    <t>01650-129106</t>
+  </si>
+  <si>
+    <t>meghan@riherd.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.kiqopuregoldoldiesfm.co.uk</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Torner</t>
+  </si>
+  <si>
+    <t>Segall Majestic Inc</t>
+  </si>
+  <si>
+    <t>30 Aughton St</t>
+  </si>
+  <si>
+    <t>Hilton</t>
+  </si>
+  <si>
+    <t>Aberdeenshire</t>
+  </si>
+  <si>
+    <t>AB24 2RR</t>
+  </si>
+  <si>
+    <t>01408-918612</t>
+  </si>
+  <si>
+    <t>mike_torner@torner.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.segallmajesticinc.co.uk</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>Delisle</t>
+  </si>
+  <si>
+    <t>Taos Valley Resort Assn</t>
+  </si>
+  <si>
+    <t>260 Saxon St</t>
+  </si>
+  <si>
+    <t>Brooklands Ward</t>
+  </si>
+  <si>
+    <t>M33 4BP</t>
+  </si>
+  <si>
+    <t>01204-471598</t>
+  </si>
+  <si>
+    <t>elsa_delisle@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.taosvalleyresortassn.co.uk</t>
+  </si>
+  <si>
+    <t>Linwood</t>
+  </si>
+  <si>
+    <t>Rosenlof</t>
+  </si>
+  <si>
+    <t>Exhibit Crafts Inc</t>
+  </si>
+  <si>
+    <t>3 Pyramid St</t>
+  </si>
+  <si>
+    <t>Eccleston Ward</t>
+  </si>
+  <si>
+    <t>WA10 3BW</t>
+  </si>
+  <si>
+    <t>01244-769346</t>
+  </si>
+  <si>
+    <t>linwood.rosenlof@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.exhibitcraftsinc.co.uk</t>
+  </si>
+  <si>
+    <t>Latosha</t>
+  </si>
+  <si>
+    <t>Alexy</t>
+  </si>
+  <si>
+    <t>Laitinen, Stephen B Esq</t>
+  </si>
+  <si>
+    <t>37 Langham St #948</t>
+  </si>
+  <si>
+    <t>St. Georges Hill Ward</t>
+  </si>
+  <si>
+    <t>KT13 0AZ</t>
+  </si>
+  <si>
+    <t>01662-268374</t>
+  </si>
+  <si>
+    <t>latosha@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.laitinenstephenbesq.co.uk</t>
+  </si>
+  <si>
+    <t>Alexia</t>
+  </si>
+  <si>
+    <t>Meenan</t>
+  </si>
+  <si>
+    <t>Herr Foods Inc</t>
+  </si>
+  <si>
+    <t>94 Villars St</t>
+  </si>
+  <si>
+    <t>Launcells</t>
+  </si>
+  <si>
+    <t>EX23 9LG</t>
+  </si>
+  <si>
+    <t>01270-931388</t>
+  </si>
+  <si>
+    <t>alexia.meenan@meenan.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.herrfoodsinc.co.uk</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Stanwick</t>
+  </si>
+  <si>
+    <t>Tiburon Pen Chmbr Commrce Inc</t>
+  </si>
+  <si>
+    <t>73 Hawkstone St</t>
+  </si>
+  <si>
+    <t>Renfrew South &amp; Gallowhill War</t>
+  </si>
+  <si>
+    <t>Dunbartonshire</t>
+  </si>
+  <si>
+    <t>G52 4YG</t>
+  </si>
+  <si>
+    <t>01409-786106</t>
+  </si>
+  <si>
+    <t>gstanwick@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.tiburonpenchmbrcommrceinc.co.uk</t>
+  </si>
+  <si>
+    <t>Elinore</t>
+  </si>
+  <si>
+    <t>Fulda</t>
+  </si>
+  <si>
+    <t>Agri Business Insurance Agency</t>
+  </si>
+  <si>
+    <t>123 Sussex St</t>
+  </si>
+  <si>
+    <t>Astley Bridge Ward</t>
+  </si>
+  <si>
+    <t>BL1 6PY</t>
+  </si>
+  <si>
+    <t>01403-864306</t>
+  </si>
+  <si>
+    <t>elinore.fulda@fulda.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.agribusinessinsuranceagency.co.uk</t>
+  </si>
+  <si>
+    <t>Lisbeth</t>
+  </si>
+  <si>
+    <t>Creecy</t>
+  </si>
+  <si>
+    <t>Gerstenfeld, Gerald F Esq</t>
+  </si>
+  <si>
+    <t>484 Barry St</t>
+  </si>
+  <si>
+    <t>Shiney Row Ward</t>
+  </si>
+  <si>
+    <t>DH4 7RG</t>
+  </si>
+  <si>
+    <t>01825-623398</t>
+  </si>
+  <si>
+    <t>lcreecy@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.gerstenfeldgeraldfesq.co.uk</t>
+  </si>
+  <si>
+    <t>Eloisa</t>
+  </si>
+  <si>
+    <t>Faurote</t>
+  </si>
+  <si>
+    <t>Mcdonald, Michael J Esq</t>
+  </si>
+  <si>
+    <t>7033 Micawber St</t>
+  </si>
+  <si>
+    <t>Bintree</t>
+  </si>
+  <si>
+    <t>NR20 5NQ</t>
+  </si>
+  <si>
+    <t>01747-999761</t>
+  </si>
+  <si>
+    <t>eloisa.faurote@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.mcdonaldmichaeljesq.co.uk</t>
+  </si>
+  <si>
+    <t>Shawana</t>
+  </si>
+  <si>
+    <t>Cantua</t>
+  </si>
+  <si>
+    <t>Best Western Riverview Inn</t>
+  </si>
+  <si>
+    <t>33 Vipond St</t>
+  </si>
+  <si>
+    <t>Woodhall Farm Ward</t>
+  </si>
+  <si>
+    <t>HP2 7JP</t>
+  </si>
+  <si>
+    <t>01659-621050</t>
+  </si>
+  <si>
+    <t>shawana@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.bestwesternriverviewinn.co.uk</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Ansbro</t>
+  </si>
+  <si>
+    <t>Berg, Michael D Esq</t>
+  </si>
+  <si>
+    <t>85 Hero St</t>
+  </si>
+  <si>
+    <t>Stanhope</t>
+  </si>
+  <si>
+    <t>DL13 2TZ</t>
+  </si>
+  <si>
+    <t>01585-967862</t>
+  </si>
+  <si>
+    <t>alyssa_ansbro@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.bergmichaeldesq.co.uk</t>
+  </si>
+  <si>
+    <t>Kyoko</t>
+  </si>
+  <si>
+    <t>Mcmillian</t>
+  </si>
+  <si>
+    <t>Nature Conservancy</t>
+  </si>
+  <si>
+    <t>77 Reading St #8</t>
+  </si>
+  <si>
+    <t>North Tawton</t>
+  </si>
+  <si>
+    <t>EX20 2TR</t>
+  </si>
+  <si>
+    <t>01371-735347</t>
+  </si>
+  <si>
+    <t>kyoko_mcmillian@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.natureconservancy.co.uk</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>Walker, Susan S Esq</t>
+  </si>
+  <si>
+    <t>274 Altcar Ave</t>
+  </si>
+  <si>
+    <t>Catterick</t>
+  </si>
+  <si>
+    <t>North Yorkshire</t>
+  </si>
+  <si>
+    <t>DL10 7NU</t>
+  </si>
+  <si>
+    <t>01793-749131</t>
+  </si>
+  <si>
+    <t>tgauthier@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.walkersusansesq.co.uk</t>
+  </si>
+  <si>
+    <t>Sena</t>
+  </si>
+  <si>
+    <t>Langenbach</t>
+  </si>
+  <si>
+    <t>Alternative Collection Svc Inc</t>
+  </si>
+  <si>
+    <t>38 Avondale Rd #79</t>
+  </si>
+  <si>
+    <t>Kilmersdon</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>BA3 5SJ</t>
+  </si>
+  <si>
+    <t>01836-695245</t>
+  </si>
+  <si>
+    <t>sena.langenbach@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.alternativecollectionsvcinc.co.uk</t>
+  </si>
+  <si>
+    <t>Cristen</t>
+  </si>
+  <si>
+    <t>Nesset</t>
+  </si>
+  <si>
+    <t>Johnson, Matthew E Esq</t>
+  </si>
+  <si>
+    <t>4679 Curzon St</t>
+  </si>
+  <si>
+    <t>Central Ward</t>
+  </si>
+  <si>
+    <t>BB5 0SJ</t>
+  </si>
+  <si>
+    <t>01994-347546</t>
+  </si>
+  <si>
+    <t>cnesset@nesset.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.johnsonmattheweesq.co.uk</t>
+  </si>
+  <si>
+    <t>Lashawn</t>
+  </si>
+  <si>
+    <t>Ker</t>
+  </si>
+  <si>
+    <t>Thornsjo, Dale O Esq</t>
+  </si>
+  <si>
+    <t>13 Nelson Rd</t>
+  </si>
+  <si>
+    <t>Filwood Ward</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>BS4 1HT</t>
+  </si>
+  <si>
+    <t>01470-187069</t>
+  </si>
+  <si>
+    <t>lashawn.ker@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.thornsjodaleoesq.co.uk</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Sovel</t>
+  </si>
+  <si>
+    <t>Manhattan Supply Co Deer Pk</t>
+  </si>
+  <si>
+    <t>2546 Hunter St</t>
+  </si>
+  <si>
+    <t>Central Buchan Ward</t>
+  </si>
+  <si>
+    <t>AB53 6YD</t>
+  </si>
+  <si>
+    <t>01317-960371</t>
+  </si>
+  <si>
+    <t>wade@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.manhattansupplycodeerpk.co.uk</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>Tishler</t>
+  </si>
+  <si>
+    <t>Clifford Standifer &amp; Mcdowell</t>
+  </si>
+  <si>
+    <t>77 Mason St #650</t>
+  </si>
+  <si>
+    <t>Smallbridge and Firgrove Ward</t>
+  </si>
+  <si>
+    <t>OL16 3AW</t>
+  </si>
+  <si>
+    <t>01948-891701</t>
+  </si>
+  <si>
+    <t>whitney@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.cliffordstandifermcdowell.co.uk</t>
+  </si>
+  <si>
+    <t>Deja</t>
+  </si>
+  <si>
+    <t>Conatser</t>
+  </si>
+  <si>
+    <t>Universal Case Co</t>
+  </si>
+  <si>
+    <t>94 Wakefield St</t>
+  </si>
+  <si>
+    <t>Lavenham</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
+    <t>CO10 9PU</t>
+  </si>
+  <si>
+    <t>01879-981256</t>
+  </si>
+  <si>
+    <t>deja.conatser@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.universalcaseco.co.uk</t>
+  </si>
+  <si>
+    <t>Earnestine</t>
+  </si>
+  <si>
+    <t>Casper</t>
+  </si>
+  <si>
+    <t>A O J Mfg Corp</t>
+  </si>
+  <si>
+    <t>529 Stalmine Rd #3680</t>
+  </si>
+  <si>
+    <t>Saffron Walden</t>
+  </si>
+  <si>
+    <t>CB11 4DJ</t>
+  </si>
+  <si>
+    <t>01260-744622</t>
+  </si>
+  <si>
+    <t>earnestine_casper@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.aojmfgcorp.co.uk</t>
+  </si>
+  <si>
+    <t>Frankie</t>
+  </si>
+  <si>
+    <t>Marruffo</t>
+  </si>
+  <si>
+    <t>Paralegal Personnel</t>
+  </si>
+  <si>
+    <t>52 Morningside Rd #1</t>
+  </si>
+  <si>
+    <t>Cilybebyll Community</t>
+  </si>
+  <si>
+    <t>Neath Port Talbot</t>
+  </si>
+  <si>
+    <t>SA8 3HE</t>
+  </si>
+  <si>
+    <t>01966-999493</t>
+  </si>
+  <si>
+    <t>fmarruffo@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.paralegalpersonnel.co.uk</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>Dease</t>
+  </si>
+  <si>
+    <t>Sunderland Publishing Co</t>
+  </si>
+  <si>
+    <t>94 Enid St</t>
+  </si>
+  <si>
+    <t>Birchington</t>
+  </si>
+  <si>
+    <t>CT7 9BG</t>
+  </si>
+  <si>
+    <t>01419-231768</t>
+  </si>
+  <si>
+    <t>pdease@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.sunderlandpublishingco.co.uk</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Hawkin</t>
+  </si>
+  <si>
+    <t>Godfroy, William Esq</t>
+  </si>
+  <si>
+    <t>661 Great Crosshall St</t>
+  </si>
+  <si>
+    <t>Forth Ward</t>
+  </si>
+  <si>
+    <t>City of Edinburgh</t>
+  </si>
+  <si>
+    <t>EH5 2LR</t>
+  </si>
+  <si>
+    <t>01280-275755</t>
+  </si>
+  <si>
+    <t>rodrigo@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.godfroywilliamesq.co.uk</t>
+  </si>
+  <si>
+    <t>Luther</t>
+  </si>
+  <si>
+    <t>Alsman</t>
+  </si>
+  <si>
+    <t>Crossroads Travel Service Inc</t>
+  </si>
+  <si>
+    <t>227 Albert Terrace</t>
+  </si>
+  <si>
+    <t>Belvedere Ward</t>
+  </si>
+  <si>
+    <t>DA17 6EF</t>
+  </si>
+  <si>
+    <t>01494-500403</t>
+  </si>
+  <si>
+    <t>luther@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.crossroadstravelserviceinc.co.uk</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Dondero</t>
+  </si>
+  <si>
+    <t>Sarrail Lynch &amp; Hall</t>
+  </si>
+  <si>
+    <t>464 Back Nile St #618</t>
+  </si>
+  <si>
+    <t>Acton Central Ward</t>
+  </si>
+  <si>
+    <t>W3 6QJ</t>
+  </si>
+  <si>
+    <t>01862-338494</t>
+  </si>
+  <si>
+    <t>casey.dondero@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.sarraillynchhall.co.uk</t>
+  </si>
+  <si>
+    <t>Ressie</t>
+  </si>
+  <si>
+    <t>Bontemps</t>
+  </si>
+  <si>
+    <t>Typesetters</t>
+  </si>
+  <si>
+    <t>42 Eastwood St</t>
+  </si>
+  <si>
+    <t>Walton Ward</t>
+  </si>
+  <si>
+    <t>PE4 6HB</t>
+  </si>
+  <si>
+    <t>01616-608138</t>
+  </si>
+  <si>
+    <t>ressie_bontemps@bontemps.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.typesetters.co.uk</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Schurman</t>
+  </si>
+  <si>
+    <t>Cooper Electric Supply Co</t>
+  </si>
+  <si>
+    <t>2877 Grain St</t>
+  </si>
+  <si>
+    <t>Caversham Ward</t>
+  </si>
+  <si>
+    <t>RG4 5DE</t>
+  </si>
+  <si>
+    <t>01423-385669</t>
+  </si>
+  <si>
+    <t>sean.schurman@schurman.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.cooperelectricsupplyco.co.uk</t>
+  </si>
+  <si>
+    <t>Celestina</t>
+  </si>
+  <si>
+    <t>Pince</t>
+  </si>
+  <si>
+    <t>Mcallister &amp; Murphy Pc</t>
+  </si>
+  <si>
+    <t>13 Stockdale St #779</t>
+  </si>
+  <si>
+    <t>Abingdon on Thames</t>
+  </si>
+  <si>
+    <t>Oxfordshire</t>
+  </si>
+  <si>
+    <t>OX14 5QH</t>
+  </si>
+  <si>
+    <t>01434-734867</t>
+  </si>
+  <si>
+    <t>cpince@pince.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.mcallistermurphypc.co.uk</t>
+  </si>
+  <si>
+    <t>Maira</t>
+  </si>
+  <si>
+    <t>Karas</t>
+  </si>
+  <si>
+    <t>Blanton, Mary R Attorney</t>
+  </si>
+  <si>
+    <t>9 Cropper St</t>
+  </si>
+  <si>
+    <t>Northgate Ward</t>
+  </si>
+  <si>
+    <t>RH10 1YJ</t>
+  </si>
+  <si>
+    <t>01927-384903</t>
+  </si>
+  <si>
+    <t>maira.karas@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.blantonmaryrattorney.co.uk</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Barbone</t>
+  </si>
+  <si>
+    <t>Upper Deck Co</t>
+  </si>
+  <si>
+    <t>3 Gaskell St</t>
+  </si>
+  <si>
+    <t>Tynemouth Ward</t>
+  </si>
+  <si>
+    <t>NE30 2NB</t>
+  </si>
+  <si>
+    <t>01521-151330</t>
+  </si>
+  <si>
+    <t>bbarbone@barbone.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.upperdeckco.co.uk</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t>Nobel</t>
+  </si>
+  <si>
+    <t>Victory Coating</t>
+  </si>
+  <si>
+    <t>5221 Royston St</t>
+  </si>
+  <si>
+    <t>Eccleshall</t>
+  </si>
+  <si>
+    <t>ST21 6GA</t>
+  </si>
+  <si>
+    <t>01608-570699</t>
+  </si>
+  <si>
+    <t>wei_nobel@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.victorycoating.co.uk</t>
+  </si>
+  <si>
+    <t>Melissia</t>
+  </si>
+  <si>
+    <t>Slotemaker</t>
+  </si>
+  <si>
+    <t>Twining Nemia &amp; Steflik</t>
+  </si>
+  <si>
+    <t>83 St Johns Lane #43</t>
+  </si>
+  <si>
+    <t>Linlithgow Ward</t>
+  </si>
+  <si>
+    <t>EH49 7LS</t>
+  </si>
+  <si>
+    <t>01936-295031</t>
+  </si>
+  <si>
+    <t>mslotemaker@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.twiningnemiasteflik.co.uk</t>
+  </si>
+  <si>
+    <t>Letha</t>
+  </si>
+  <si>
+    <t>Akey</t>
+  </si>
+  <si>
+    <t>Jeanettes Drapery &amp; Upholstery</t>
+  </si>
+  <si>
+    <t>603 Pall Mall</t>
+  </si>
+  <si>
+    <t>Layton Ward</t>
+  </si>
+  <si>
+    <t>FY3 8ND</t>
+  </si>
+  <si>
+    <t>01605-583419</t>
+  </si>
+  <si>
+    <t>letha_akey@akey.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.jeanettesdraperyupholstery.co.uk</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Semrad</t>
+  </si>
+  <si>
+    <t>Prugh, Pamela J Cpa</t>
+  </si>
+  <si>
+    <t>76 Dawber St #6</t>
+  </si>
+  <si>
+    <t>Blackheath Westcombe Ward</t>
+  </si>
+  <si>
+    <t>SE3 7JY</t>
+  </si>
+  <si>
+    <t>01798-503274</t>
+  </si>
+  <si>
+    <t>isaac.semrad@semrad.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.prughpamelajcpa.co.uk</t>
+  </si>
+  <si>
+    <t>Kristine</t>
+  </si>
+  <si>
+    <t>Klipfel</t>
+  </si>
+  <si>
+    <t>Neeley, Gregory W Esq</t>
+  </si>
+  <si>
+    <t>3380 Alexander St</t>
+  </si>
+  <si>
+    <t>Moulsham and Central Ward</t>
+  </si>
+  <si>
+    <t>CM1 9QQ</t>
+  </si>
+  <si>
+    <t>01396-935784</t>
+  </si>
+  <si>
+    <t>kristine.klipfel@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.neeleygregorywesq.co.uk</t>
+  </si>
+  <si>
+    <t>Odette</t>
+  </si>
+  <si>
+    <t>Moussette</t>
+  </si>
+  <si>
+    <t>Village Business Center</t>
+  </si>
+  <si>
+    <t>216 Lissant St #8</t>
+  </si>
+  <si>
+    <t>Great Dunmow</t>
+  </si>
+  <si>
+    <t>CM6 1DQ</t>
+  </si>
+  <si>
+    <t>01626-260974</t>
+  </si>
+  <si>
+    <t>odette_moussette@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.villagebusinesscenter.co.uk</t>
+  </si>
+  <si>
+    <t>Hobert</t>
+  </si>
+  <si>
+    <t>Panfilov</t>
+  </si>
+  <si>
+    <t>Carlin, Angela G Esq</t>
+  </si>
+  <si>
+    <t>92 Phythian St #614</t>
+  </si>
+  <si>
+    <t>Gweek</t>
+  </si>
+  <si>
+    <t>TR11 5RR</t>
+  </si>
+  <si>
+    <t>01518-554407</t>
+  </si>
+  <si>
+    <t>hobert@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.carlinangelagesq.co.uk</t>
+  </si>
+  <si>
+    <t>Isadora</t>
+  </si>
+  <si>
+    <t>Mchughes</t>
+  </si>
+  <si>
+    <t>Fan Shop</t>
+  </si>
+  <si>
+    <t>792 Queens Rd</t>
+  </si>
+  <si>
+    <t>Stretford Ward</t>
+  </si>
+  <si>
+    <t>M32 8LR</t>
+  </si>
+  <si>
+    <t>01338-403471</t>
+  </si>
+  <si>
+    <t>isadora.mchughes@mchughes.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.fanshop.co.uk</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Pogorelc</t>
+  </si>
+  <si>
+    <t>Mccartney Printing Services</t>
+  </si>
+  <si>
+    <t>5196 York St</t>
+  </si>
+  <si>
+    <t>Orsett Ward</t>
+  </si>
+  <si>
+    <t>SS17 8NS</t>
+  </si>
+  <si>
+    <t>01439-493163</t>
+  </si>
+  <si>
+    <t>emily.pogorelc@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.mccartneyprintingservices.co.uk</t>
+  </si>
+  <si>
+    <t>Desire</t>
+  </si>
+  <si>
+    <t>Barresi</t>
+  </si>
+  <si>
+    <t>Greater Cinc Schl Empl Crdt Un</t>
+  </si>
+  <si>
+    <t>428 Kearsley St</t>
+  </si>
+  <si>
+    <t>Hatton</t>
+  </si>
+  <si>
+    <t>CV35 7UA</t>
+  </si>
+  <si>
+    <t>01970-482055</t>
+  </si>
+  <si>
+    <t>desire@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.greatercincschlemplcrdtun.co.uk</t>
+  </si>
+  <si>
+    <t>Rosalind</t>
+  </si>
+  <si>
+    <t>Stamps</t>
+  </si>
+  <si>
+    <t>Haar, Allen F</t>
+  </si>
+  <si>
+    <t>8 Chestnut St</t>
+  </si>
+  <si>
+    <t>Barrowford</t>
+  </si>
+  <si>
+    <t>BB9 6EW</t>
+  </si>
+  <si>
+    <t>01736-843257</t>
+  </si>
+  <si>
+    <t>rosalind.stamps@stamps.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.haarallenf.co.uk</t>
+  </si>
+  <si>
+    <t>Vernell</t>
+  </si>
+  <si>
+    <t>Connley</t>
+  </si>
+  <si>
+    <t>Harmons</t>
+  </si>
+  <si>
+    <t>998 Roe St #6</t>
+  </si>
+  <si>
+    <t>Bellingham</t>
+  </si>
+  <si>
+    <t>Northumberland</t>
+  </si>
+  <si>
+    <t>NE48 2BX</t>
+  </si>
+  <si>
+    <t>01585-863534</t>
+  </si>
+  <si>
+    <t>vernell@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.harmons.co.uk</t>
+  </si>
+  <si>
+    <t>Micheline</t>
+  </si>
+  <si>
+    <t>Mathieson</t>
+  </si>
+  <si>
+    <t>Mail Boxes Etc</t>
+  </si>
+  <si>
+    <t>3 Copenhagen Rd</t>
+  </si>
+  <si>
+    <t>George St</t>
+  </si>
+  <si>
+    <t>AB25 3UZ</t>
+  </si>
+  <si>
+    <t>01247-541211</t>
+  </si>
+  <si>
+    <t>micheline.mathieson@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.mailboxesetc.co.uk</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Outhouse</t>
+  </si>
+  <si>
+    <t>Grt Amercn Fed Svngs &amp; Ln Assn</t>
+  </si>
+  <si>
+    <t>293 Vivian St</t>
+  </si>
+  <si>
+    <t>South Jesmond Ward</t>
+  </si>
+  <si>
+    <t>NE2 1EY</t>
+  </si>
+  <si>
+    <t>01364-499130</t>
+  </si>
+  <si>
+    <t>nathan.outhouse@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.grtamercnfedsvngslnassn.co.uk</t>
+  </si>
+  <si>
+    <t>Allene</t>
+  </si>
+  <si>
+    <t>Burau</t>
+  </si>
+  <si>
+    <t>Allied Plastics</t>
+  </si>
+  <si>
+    <t>8 Barlow St #6</t>
+  </si>
+  <si>
+    <t>Barlow</t>
+  </si>
+  <si>
+    <t>S18 7TH</t>
+  </si>
+  <si>
+    <t>01260-963065</t>
+  </si>
+  <si>
+    <t>allene.burau@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.alliedplastics.co.uk</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Sakshaug</t>
+  </si>
+  <si>
+    <t>Newton Clerk</t>
+  </si>
+  <si>
+    <t>5 Shakspeare St #66</t>
+  </si>
+  <si>
+    <t>St. Johns Ward</t>
+  </si>
+  <si>
+    <t>B61 8HD</t>
+  </si>
+  <si>
+    <t>01641-570473</t>
+  </si>
+  <si>
+    <t>julie@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.newtonclerk.co.uk</t>
+  </si>
+  <si>
+    <t>Francisca</t>
+  </si>
+  <si>
+    <t>Shuhi</t>
+  </si>
+  <si>
+    <t>Thompson, Chesney Md</t>
+  </si>
+  <si>
+    <t>7 Carolina St</t>
+  </si>
+  <si>
+    <t>Bodmin</t>
+  </si>
+  <si>
+    <t>PL31 1QF</t>
+  </si>
+  <si>
+    <t>01639-663121</t>
+  </si>
+  <si>
+    <t>fshuhi@shuhi.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.thompsonchesneymd.co.uk</t>
+  </si>
+  <si>
+    <t>Marisha</t>
+  </si>
+  <si>
+    <t>Wilcoxon</t>
+  </si>
+  <si>
+    <t>Young Door Company</t>
+  </si>
+  <si>
+    <t>52 Trowbridge St</t>
+  </si>
+  <si>
+    <t>Knightsbridge and Belgravia Wa</t>
+  </si>
+  <si>
+    <t>SW1X 9HB</t>
+  </si>
+  <si>
+    <t>01422-891030</t>
+  </si>
+  <si>
+    <t>marisha.wilcoxon@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.youngdoorcompany.co.uk</t>
+  </si>
+  <si>
+    <t>Telma</t>
+  </si>
+  <si>
+    <t>Maraia</t>
+  </si>
+  <si>
+    <t>Reliable Yard Service</t>
+  </si>
+  <si>
+    <t>25 Village St</t>
+  </si>
+  <si>
+    <t>Elgin City South Ward</t>
+  </si>
+  <si>
+    <t>Moray</t>
+  </si>
+  <si>
+    <t>IV30 1SB</t>
+  </si>
+  <si>
+    <t>01531-881940</t>
+  </si>
+  <si>
+    <t>telma@maraia.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.reliableyardservice.co.uk</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Crete</t>
+  </si>
+  <si>
+    <t>M D &amp; W Railway</t>
+  </si>
+  <si>
+    <t>4 Peach St #5112</t>
+  </si>
+  <si>
+    <t>Halstead</t>
+  </si>
+  <si>
+    <t>TN14 7EF</t>
+  </si>
+  <si>
+    <t>01268-175772</t>
+  </si>
+  <si>
+    <t>luke.crete@crete.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.mdwrailway.co.uk</t>
+  </si>
+  <si>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>Mias</t>
+  </si>
+  <si>
+    <t>Chuckmaster Co</t>
+  </si>
+  <si>
+    <t>3614 Old Hall St #604</t>
+  </si>
+  <si>
+    <t>Fawley</t>
+  </si>
+  <si>
+    <t>SO45 2PT</t>
+  </si>
+  <si>
+    <t>01857-225719</t>
+  </si>
+  <si>
+    <t>hubert.mias@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.chuckmasterco.co.uk</t>
+  </si>
+  <si>
+    <t>Janella</t>
+  </si>
+  <si>
+    <t>Altobell</t>
+  </si>
+  <si>
+    <t>Shannon, Paul V Esq</t>
+  </si>
+  <si>
+    <t>3768 Hey Green Rd</t>
+  </si>
+  <si>
+    <t>Hartshill</t>
+  </si>
+  <si>
+    <t>CV10 0TH</t>
+  </si>
+  <si>
+    <t>01411-597527</t>
+  </si>
+  <si>
+    <t>jaltobell@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.shannonpaulvesq.co.uk</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>Lavista</t>
+  </si>
+  <si>
+    <t>Computemp</t>
+  </si>
+  <si>
+    <t>97 Newlands St</t>
+  </si>
+  <si>
+    <t>Kensington and Fairfield Ward</t>
+  </si>
+  <si>
+    <t>L6 9DU</t>
+  </si>
+  <si>
+    <t>01210-307796</t>
+  </si>
+  <si>
+    <t>angelo.lavista@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.computemp.co.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -670,9 +4338,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438F2080-1A44-1241-8A3E-D9B1C6AAF885}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection sqref="A1:N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,643 +4675,4835 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>125</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>156</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>166</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>186</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>196</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" t="s">
+        <v>263</v>
+      </c>
+      <c r="I27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H30" t="s">
+        <v>293</v>
+      </c>
+      <c r="I30" t="s">
+        <v>294</v>
+      </c>
+      <c r="J30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>301</v>
+      </c>
+      <c r="H31" t="s">
+        <v>302</v>
+      </c>
+      <c r="I31" t="s">
+        <v>303</v>
+      </c>
+      <c r="J31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" t="s">
+        <v>311</v>
+      </c>
+      <c r="H32" t="s">
+        <v>312</v>
+      </c>
+      <c r="I32" t="s">
+        <v>313</v>
+      </c>
+      <c r="J32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" t="s">
+        <v>322</v>
+      </c>
+      <c r="I33" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
+      </c>
+      <c r="H34" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" t="s">
+        <v>333</v>
+      </c>
+      <c r="J34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F35" t="s">
+        <v>340</v>
+      </c>
+      <c r="G35" t="s">
+        <v>341</v>
+      </c>
+      <c r="H35" t="s">
+        <v>342</v>
+      </c>
+      <c r="I35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E36" t="s">
+        <v>349</v>
+      </c>
+      <c r="F36" t="s">
+        <v>350</v>
+      </c>
+      <c r="G36" t="s">
+        <v>351</v>
+      </c>
+      <c r="H36" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" t="s">
+        <v>353</v>
+      </c>
+      <c r="J36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" t="s">
+        <v>360</v>
+      </c>
+      <c r="H37" t="s">
+        <v>361</v>
+      </c>
+      <c r="I37" t="s">
+        <v>362</v>
+      </c>
+      <c r="J37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" t="s">
+        <v>369</v>
+      </c>
+      <c r="G38" t="s">
+        <v>370</v>
+      </c>
+      <c r="H38" t="s">
+        <v>371</v>
+      </c>
+      <c r="I38" t="s">
+        <v>372</v>
+      </c>
+      <c r="J38" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" t="s">
+        <v>377</v>
+      </c>
+      <c r="E39" t="s">
+        <v>378</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>379</v>
+      </c>
+      <c r="H39" t="s">
+        <v>380</v>
+      </c>
+      <c r="I39" t="s">
+        <v>381</v>
+      </c>
+      <c r="J39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B40" t="s">
+        <v>384</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" t="s">
+        <v>387</v>
+      </c>
+      <c r="F40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>388</v>
+      </c>
+      <c r="H40" t="s">
+        <v>389</v>
+      </c>
+      <c r="I40" t="s">
+        <v>390</v>
+      </c>
+      <c r="J40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E41" t="s">
+        <v>396</v>
+      </c>
+      <c r="F41" t="s">
+        <v>397</v>
+      </c>
+      <c r="G41" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41" t="s">
+        <v>399</v>
+      </c>
+      <c r="I41" t="s">
+        <v>400</v>
+      </c>
+      <c r="J41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>402</v>
+      </c>
+      <c r="B42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D42" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" t="s">
+        <v>407</v>
+      </c>
+      <c r="G42" t="s">
+        <v>408</v>
+      </c>
+      <c r="H42" t="s">
+        <v>409</v>
+      </c>
+      <c r="I42" t="s">
+        <v>410</v>
+      </c>
+      <c r="J42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
+      <c r="D43" t="s">
+        <v>415</v>
+      </c>
+      <c r="E43" t="s">
+        <v>416</v>
+      </c>
+      <c r="F43" t="s">
+        <v>417</v>
+      </c>
+      <c r="G43" t="s">
+        <v>418</v>
+      </c>
+      <c r="H43" t="s">
+        <v>419</v>
+      </c>
+      <c r="I43" t="s">
+        <v>420</v>
+      </c>
+      <c r="J43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>422</v>
+      </c>
+      <c r="B44" t="s">
+        <v>423</v>
+      </c>
+      <c r="C44" t="s">
+        <v>424</v>
+      </c>
+      <c r="D44" t="s">
+        <v>425</v>
+      </c>
+      <c r="E44" t="s">
+        <v>426</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>427</v>
+      </c>
+      <c r="H44" t="s">
+        <v>428</v>
+      </c>
+      <c r="I44" t="s">
+        <v>429</v>
+      </c>
+      <c r="J44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>431</v>
+      </c>
+      <c r="B45" t="s">
+        <v>432</v>
+      </c>
+      <c r="C45" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" t="s">
+        <v>434</v>
+      </c>
+      <c r="E45" t="s">
+        <v>435</v>
+      </c>
+      <c r="F45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G45" t="s">
+        <v>436</v>
+      </c>
+      <c r="H45" t="s">
+        <v>437</v>
+      </c>
+      <c r="I45" t="s">
+        <v>438</v>
+      </c>
+      <c r="J45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>440</v>
+      </c>
+      <c r="B46" t="s">
+        <v>441</v>
+      </c>
+      <c r="C46" t="s">
+        <v>442</v>
+      </c>
+      <c r="D46" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46" t="s">
+        <v>444</v>
+      </c>
+      <c r="F46" t="s">
+        <v>445</v>
+      </c>
+      <c r="G46" t="s">
+        <v>446</v>
+      </c>
+      <c r="H46" t="s">
+        <v>447</v>
+      </c>
+      <c r="I46" t="s">
+        <v>448</v>
+      </c>
+      <c r="J46" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" t="s">
+        <v>453</v>
+      </c>
+      <c r="E47" t="s">
+        <v>454</v>
+      </c>
+      <c r="F47" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" t="s">
+        <v>455</v>
+      </c>
+      <c r="H47" t="s">
+        <v>456</v>
+      </c>
+      <c r="I47" t="s">
+        <v>457</v>
+      </c>
+      <c r="J47" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" t="s">
+        <v>461</v>
+      </c>
+      <c r="D48" t="s">
+        <v>462</v>
+      </c>
+      <c r="E48" t="s">
+        <v>463</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>464</v>
+      </c>
+      <c r="H48" t="s">
+        <v>465</v>
+      </c>
+      <c r="I48" t="s">
+        <v>466</v>
+      </c>
+      <c r="J48" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>468</v>
+      </c>
+      <c r="B49" t="s">
+        <v>469</v>
+      </c>
+      <c r="C49" t="s">
+        <v>470</v>
+      </c>
+      <c r="D49" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F49" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" t="s">
+        <v>473</v>
+      </c>
+      <c r="H49" t="s">
+        <v>474</v>
+      </c>
+      <c r="I49" t="s">
+        <v>475</v>
+      </c>
+      <c r="J49" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" t="s">
+        <v>479</v>
+      </c>
+      <c r="D50" t="s">
+        <v>480</v>
+      </c>
+      <c r="E50" t="s">
+        <v>481</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>482</v>
+      </c>
+      <c r="H50" t="s">
+        <v>483</v>
+      </c>
+      <c r="I50" t="s">
+        <v>484</v>
+      </c>
+      <c r="J50" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>486</v>
+      </c>
+      <c r="B51" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" t="s">
+        <v>488</v>
+      </c>
+      <c r="D51" t="s">
+        <v>489</v>
+      </c>
+      <c r="E51" t="s">
+        <v>490</v>
+      </c>
+      <c r="F51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" t="s">
+        <v>491</v>
+      </c>
+      <c r="H51" t="s">
+        <v>492</v>
+      </c>
+      <c r="I51" t="s">
+        <v>493</v>
+      </c>
+      <c r="J51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>495</v>
+      </c>
+      <c r="B52" t="s">
+        <v>496</v>
+      </c>
+      <c r="C52" t="s">
+        <v>497</v>
+      </c>
+      <c r="D52" t="s">
+        <v>498</v>
+      </c>
+      <c r="E52" t="s">
+        <v>499</v>
+      </c>
+      <c r="F52" t="s">
+        <v>500</v>
+      </c>
+      <c r="G52" t="s">
+        <v>501</v>
+      </c>
+      <c r="H52" t="s">
+        <v>502</v>
+      </c>
+      <c r="I52" t="s">
+        <v>503</v>
+      </c>
+      <c r="J52" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B53" t="s">
+        <v>506</v>
+      </c>
+      <c r="C53" t="s">
+        <v>507</v>
+      </c>
+      <c r="D53" t="s">
+        <v>508</v>
+      </c>
+      <c r="E53" t="s">
+        <v>509</v>
+      </c>
+      <c r="F53" t="s">
+        <v>500</v>
+      </c>
+      <c r="G53" t="s">
+        <v>510</v>
+      </c>
+      <c r="H53" t="s">
+        <v>511</v>
+      </c>
+      <c r="I53" t="s">
+        <v>512</v>
+      </c>
+      <c r="J53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B54" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" t="s">
+        <v>516</v>
+      </c>
+      <c r="D54" t="s">
+        <v>517</v>
+      </c>
+      <c r="E54" t="s">
+        <v>518</v>
+      </c>
+      <c r="F54" t="s">
+        <v>519</v>
+      </c>
+      <c r="G54" t="s">
+        <v>520</v>
+      </c>
+      <c r="H54" t="s">
+        <v>521</v>
+      </c>
+      <c r="I54" t="s">
+        <v>522</v>
+      </c>
+      <c r="J54" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>524</v>
+      </c>
+      <c r="B55" t="s">
+        <v>525</v>
+      </c>
+      <c r="C55" t="s">
+        <v>526</v>
+      </c>
+      <c r="D55" t="s">
+        <v>527</v>
+      </c>
+      <c r="E55" t="s">
+        <v>528</v>
+      </c>
+      <c r="F55" t="s">
+        <v>397</v>
+      </c>
+      <c r="G55" t="s">
+        <v>529</v>
+      </c>
+      <c r="H55" t="s">
+        <v>530</v>
+      </c>
+      <c r="I55" t="s">
+        <v>531</v>
+      </c>
+      <c r="J55" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>533</v>
+      </c>
+      <c r="B56" t="s">
+        <v>534</v>
+      </c>
+      <c r="C56" t="s">
+        <v>535</v>
+      </c>
+      <c r="D56" t="s">
+        <v>536</v>
+      </c>
+      <c r="E56" t="s">
+        <v>537</v>
+      </c>
+      <c r="F56" t="s">
+        <v>538</v>
+      </c>
+      <c r="G56" t="s">
+        <v>539</v>
+      </c>
+      <c r="H56" t="s">
+        <v>540</v>
+      </c>
+      <c r="I56" t="s">
+        <v>541</v>
+      </c>
+      <c r="J56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B57" t="s">
+        <v>544</v>
+      </c>
+      <c r="C57" t="s">
+        <v>545</v>
+      </c>
+      <c r="D57" t="s">
+        <v>546</v>
+      </c>
+      <c r="E57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" t="s">
+        <v>547</v>
+      </c>
+      <c r="H57" t="s">
+        <v>548</v>
+      </c>
+      <c r="I57" t="s">
+        <v>549</v>
+      </c>
+      <c r="J57" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>551</v>
+      </c>
+      <c r="B58" t="s">
+        <v>552</v>
+      </c>
+      <c r="C58" t="s">
+        <v>553</v>
+      </c>
+      <c r="D58" t="s">
+        <v>554</v>
+      </c>
+      <c r="E58" t="s">
+        <v>555</v>
+      </c>
+      <c r="F58" t="s">
+        <v>281</v>
+      </c>
+      <c r="G58" t="s">
+        <v>556</v>
+      </c>
+      <c r="H58" t="s">
+        <v>557</v>
+      </c>
+      <c r="I58" t="s">
+        <v>558</v>
+      </c>
+      <c r="J58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>560</v>
+      </c>
+      <c r="B59" t="s">
+        <v>561</v>
+      </c>
+      <c r="C59" t="s">
+        <v>562</v>
+      </c>
+      <c r="D59" t="s">
+        <v>563</v>
+      </c>
+      <c r="E59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>564</v>
+      </c>
+      <c r="H59" t="s">
+        <v>565</v>
+      </c>
+      <c r="I59" t="s">
+        <v>566</v>
+      </c>
+      <c r="J59" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>568</v>
+      </c>
+      <c r="B60" t="s">
+        <v>569</v>
+      </c>
+      <c r="C60" t="s">
+        <v>570</v>
+      </c>
+      <c r="D60" t="s">
+        <v>571</v>
+      </c>
+      <c r="E60" t="s">
+        <v>572</v>
+      </c>
+      <c r="F60" t="s">
+        <v>573</v>
+      </c>
+      <c r="G60" t="s">
+        <v>574</v>
+      </c>
+      <c r="H60" t="s">
+        <v>575</v>
+      </c>
+      <c r="I60" t="s">
+        <v>576</v>
+      </c>
+      <c r="J60" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>578</v>
+      </c>
+      <c r="B61" t="s">
+        <v>579</v>
+      </c>
+      <c r="C61" t="s">
+        <v>580</v>
+      </c>
+      <c r="D61" t="s">
+        <v>581</v>
+      </c>
+      <c r="E61" t="s">
+        <v>582</v>
+      </c>
+      <c r="F61" t="s">
+        <v>500</v>
+      </c>
+      <c r="G61" t="s">
+        <v>583</v>
+      </c>
+      <c r="H61" t="s">
+        <v>584</v>
+      </c>
+      <c r="I61" t="s">
+        <v>585</v>
+      </c>
+      <c r="J61" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>587</v>
+      </c>
+      <c r="B62" t="s">
+        <v>588</v>
+      </c>
+      <c r="C62" t="s">
+        <v>589</v>
+      </c>
+      <c r="D62" t="s">
+        <v>590</v>
+      </c>
+      <c r="E62" t="s">
+        <v>591</v>
+      </c>
+      <c r="F62" t="s">
+        <v>592</v>
+      </c>
+      <c r="G62" t="s">
+        <v>593</v>
+      </c>
+      <c r="H62" t="s">
+        <v>594</v>
+      </c>
+      <c r="I62" t="s">
+        <v>595</v>
+      </c>
+      <c r="J62" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>597</v>
+      </c>
+      <c r="B63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C63" t="s">
+        <v>599</v>
+      </c>
+      <c r="D63" t="s">
+        <v>600</v>
+      </c>
+      <c r="E63" t="s">
+        <v>601</v>
+      </c>
+      <c r="F63" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63" t="s">
+        <v>602</v>
+      </c>
+      <c r="H63" t="s">
+        <v>603</v>
+      </c>
+      <c r="I63" t="s">
+        <v>604</v>
+      </c>
+      <c r="J63" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>606</v>
+      </c>
+      <c r="B64" t="s">
+        <v>607</v>
+      </c>
+      <c r="C64" t="s">
+        <v>608</v>
+      </c>
+      <c r="D64" t="s">
+        <v>609</v>
+      </c>
+      <c r="E64" t="s">
+        <v>610</v>
+      </c>
+      <c r="F64" t="s">
+        <v>611</v>
+      </c>
+      <c r="G64" t="s">
+        <v>612</v>
+      </c>
+      <c r="H64" t="s">
+        <v>613</v>
+      </c>
+      <c r="I64" t="s">
+        <v>614</v>
+      </c>
+      <c r="J64" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B65" t="s">
+        <v>617</v>
+      </c>
+      <c r="C65" t="s">
+        <v>618</v>
+      </c>
+      <c r="D65" t="s">
+        <v>619</v>
+      </c>
+      <c r="E65" t="s">
+        <v>620</v>
+      </c>
+      <c r="F65" t="s">
+        <v>621</v>
+      </c>
+      <c r="G65" t="s">
+        <v>622</v>
+      </c>
+      <c r="H65" t="s">
+        <v>623</v>
+      </c>
+      <c r="I65" t="s">
+        <v>624</v>
+      </c>
+      <c r="J65" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>626</v>
+      </c>
+      <c r="B66" t="s">
+        <v>627</v>
+      </c>
+      <c r="C66" t="s">
+        <v>628</v>
+      </c>
+      <c r="D66" t="s">
+        <v>629</v>
+      </c>
+      <c r="E66" t="s">
+        <v>630</v>
+      </c>
+      <c r="F66" t="s">
+        <v>631</v>
+      </c>
+      <c r="G66" t="s">
+        <v>632</v>
+      </c>
+      <c r="H66" t="s">
+        <v>633</v>
+      </c>
+      <c r="I66" t="s">
+        <v>634</v>
+      </c>
+      <c r="J66" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>636</v>
+      </c>
+      <c r="B67" t="s">
+        <v>637</v>
+      </c>
+      <c r="C67" t="s">
+        <v>638</v>
+      </c>
+      <c r="D67" t="s">
+        <v>639</v>
+      </c>
+      <c r="E67" t="s">
+        <v>640</v>
+      </c>
+      <c r="F67" t="s">
+        <v>641</v>
+      </c>
+      <c r="G67" t="s">
+        <v>642</v>
+      </c>
+      <c r="H67" t="s">
+        <v>643</v>
+      </c>
+      <c r="I67" t="s">
+        <v>644</v>
+      </c>
+      <c r="J67" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>646</v>
+      </c>
+      <c r="B68" t="s">
+        <v>647</v>
+      </c>
+      <c r="C68" t="s">
+        <v>648</v>
+      </c>
+      <c r="D68" t="s">
+        <v>649</v>
+      </c>
+      <c r="E68" t="s">
+        <v>650</v>
+      </c>
+      <c r="F68" t="s">
+        <v>651</v>
+      </c>
+      <c r="G68" t="s">
+        <v>652</v>
+      </c>
+      <c r="H68" t="s">
+        <v>653</v>
+      </c>
+      <c r="I68" t="s">
+        <v>654</v>
+      </c>
+      <c r="J68" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>656</v>
+      </c>
+      <c r="B69" t="s">
+        <v>657</v>
+      </c>
+      <c r="C69" t="s">
+        <v>658</v>
+      </c>
+      <c r="D69" t="s">
+        <v>659</v>
+      </c>
+      <c r="E69" t="s">
+        <v>660</v>
+      </c>
+      <c r="F69" t="s">
+        <v>661</v>
+      </c>
+      <c r="G69" t="s">
+        <v>662</v>
+      </c>
+      <c r="H69" t="s">
+        <v>663</v>
+      </c>
+      <c r="I69" t="s">
+        <v>664</v>
+      </c>
+      <c r="J69" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>666</v>
+      </c>
+      <c r="B70" t="s">
+        <v>667</v>
+      </c>
+      <c r="C70" t="s">
+        <v>668</v>
+      </c>
+      <c r="D70" t="s">
+        <v>669</v>
+      </c>
+      <c r="E70" t="s">
+        <v>670</v>
+      </c>
+      <c r="F70" t="s">
+        <v>397</v>
+      </c>
+      <c r="G70" t="s">
+        <v>671</v>
+      </c>
+      <c r="H70" t="s">
+        <v>672</v>
+      </c>
+      <c r="I70" t="s">
+        <v>673</v>
+      </c>
+      <c r="J70" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>675</v>
+      </c>
+      <c r="B71" t="s">
+        <v>676</v>
+      </c>
+      <c r="C71" t="s">
+        <v>677</v>
+      </c>
+      <c r="D71" t="s">
+        <v>678</v>
+      </c>
+      <c r="E71" t="s">
+        <v>679</v>
+      </c>
+      <c r="F71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" t="s">
+        <v>680</v>
+      </c>
+      <c r="H71" t="s">
+        <v>681</v>
+      </c>
+      <c r="I71" t="s">
+        <v>682</v>
+      </c>
+      <c r="J71" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>684</v>
+      </c>
+      <c r="B72" t="s">
+        <v>685</v>
+      </c>
+      <c r="C72" t="s">
+        <v>686</v>
+      </c>
+      <c r="D72" t="s">
+        <v>687</v>
+      </c>
+      <c r="E72" t="s">
+        <v>688</v>
+      </c>
+      <c r="F72" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
+        <v>689</v>
+      </c>
+      <c r="H72" t="s">
+        <v>690</v>
+      </c>
+      <c r="I72" t="s">
+        <v>691</v>
+      </c>
+      <c r="J72" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>693</v>
+      </c>
+      <c r="B73" t="s">
+        <v>694</v>
+      </c>
+      <c r="C73" t="s">
+        <v>695</v>
+      </c>
+      <c r="D73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E73" t="s">
+        <v>697</v>
+      </c>
+      <c r="F73" t="s">
+        <v>698</v>
+      </c>
+      <c r="G73" t="s">
+        <v>699</v>
+      </c>
+      <c r="H73" t="s">
+        <v>700</v>
+      </c>
+      <c r="I73" t="s">
+        <v>701</v>
+      </c>
+      <c r="J73" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>703</v>
+      </c>
+      <c r="B74" t="s">
+        <v>704</v>
+      </c>
+      <c r="C74" t="s">
+        <v>705</v>
+      </c>
+      <c r="D74" t="s">
+        <v>706</v>
+      </c>
+      <c r="E74" t="s">
+        <v>707</v>
+      </c>
+      <c r="F74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" t="s">
+        <v>708</v>
+      </c>
+      <c r="H74" t="s">
+        <v>709</v>
+      </c>
+      <c r="I74" t="s">
+        <v>710</v>
+      </c>
+      <c r="J74" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>712</v>
+      </c>
+      <c r="B75" t="s">
+        <v>713</v>
+      </c>
+      <c r="C75" t="s">
+        <v>714</v>
+      </c>
+      <c r="D75" t="s">
+        <v>715</v>
+      </c>
+      <c r="E75" t="s">
+        <v>716</v>
+      </c>
+      <c r="F75" t="s">
+        <v>417</v>
+      </c>
+      <c r="G75" t="s">
+        <v>717</v>
+      </c>
+      <c r="H75" t="s">
+        <v>718</v>
+      </c>
+      <c r="I75" t="s">
+        <v>719</v>
+      </c>
+      <c r="J75" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>721</v>
+      </c>
+      <c r="B76" t="s">
+        <v>722</v>
+      </c>
+      <c r="C76" t="s">
+        <v>723</v>
+      </c>
+      <c r="D76" t="s">
+        <v>724</v>
+      </c>
+      <c r="E76" t="s">
+        <v>725</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>726</v>
+      </c>
+      <c r="H76" t="s">
+        <v>727</v>
+      </c>
+      <c r="I76" t="s">
+        <v>728</v>
+      </c>
+      <c r="J76" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>730</v>
+      </c>
+      <c r="B77" t="s">
+        <v>731</v>
+      </c>
+      <c r="C77" t="s">
+        <v>732</v>
+      </c>
+      <c r="D77" t="s">
+        <v>733</v>
+      </c>
+      <c r="E77" t="s">
+        <v>734</v>
+      </c>
+      <c r="F77" t="s">
+        <v>397</v>
+      </c>
+      <c r="G77" t="s">
+        <v>735</v>
+      </c>
+      <c r="H77" t="s">
+        <v>736</v>
+      </c>
+      <c r="I77" t="s">
+        <v>737</v>
+      </c>
+      <c r="J77" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>739</v>
+      </c>
+      <c r="B78" t="s">
+        <v>740</v>
+      </c>
+      <c r="C78" t="s">
+        <v>741</v>
+      </c>
+      <c r="D78" t="s">
+        <v>742</v>
+      </c>
+      <c r="E78" t="s">
+        <v>743</v>
+      </c>
+      <c r="F78" t="s">
+        <v>445</v>
+      </c>
+      <c r="G78" t="s">
+        <v>744</v>
+      </c>
+      <c r="H78" t="s">
+        <v>745</v>
+      </c>
+      <c r="I78" t="s">
+        <v>746</v>
+      </c>
+      <c r="J78" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>748</v>
+      </c>
+      <c r="B79" t="s">
+        <v>749</v>
+      </c>
+      <c r="C79" t="s">
+        <v>750</v>
+      </c>
+      <c r="D79" t="s">
+        <v>751</v>
+      </c>
+      <c r="E79" t="s">
+        <v>752</v>
+      </c>
+      <c r="F79" t="s">
+        <v>753</v>
+      </c>
+      <c r="G79" t="s">
+        <v>754</v>
+      </c>
+      <c r="H79" t="s">
+        <v>755</v>
+      </c>
+      <c r="I79" t="s">
+        <v>756</v>
+      </c>
+      <c r="J79" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>758</v>
+      </c>
+      <c r="B80" t="s">
+        <v>759</v>
+      </c>
+      <c r="C80" t="s">
+        <v>760</v>
+      </c>
+      <c r="D80" t="s">
+        <v>761</v>
+      </c>
+      <c r="E80" t="s">
+        <v>762</v>
+      </c>
+      <c r="F80" t="s">
+        <v>763</v>
+      </c>
+      <c r="G80" t="s">
+        <v>764</v>
+      </c>
+      <c r="H80" t="s">
+        <v>765</v>
+      </c>
+      <c r="I80" t="s">
+        <v>766</v>
+      </c>
+      <c r="J80" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>768</v>
+      </c>
+      <c r="B81" t="s">
+        <v>769</v>
+      </c>
+      <c r="C81" t="s">
+        <v>770</v>
+      </c>
+      <c r="D81" t="s">
+        <v>771</v>
+      </c>
+      <c r="E81" t="s">
+        <v>772</v>
+      </c>
+      <c r="F81" t="s">
+        <v>773</v>
+      </c>
+      <c r="G81" t="s">
+        <v>774</v>
+      </c>
+      <c r="H81" t="s">
+        <v>775</v>
+      </c>
+      <c r="I81" t="s">
+        <v>776</v>
+      </c>
+      <c r="J81" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>778</v>
+      </c>
+      <c r="B82" t="s">
+        <v>779</v>
+      </c>
+      <c r="C82" t="s">
+        <v>780</v>
+      </c>
+      <c r="D82" t="s">
+        <v>781</v>
+      </c>
+      <c r="E82" t="s">
+        <v>782</v>
+      </c>
+      <c r="F82" t="s">
+        <v>281</v>
+      </c>
+      <c r="G82" t="s">
+        <v>783</v>
+      </c>
+      <c r="H82" t="s">
+        <v>784</v>
+      </c>
+      <c r="I82" t="s">
+        <v>785</v>
+      </c>
+      <c r="J82" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>787</v>
+      </c>
+      <c r="B83" t="s">
+        <v>788</v>
+      </c>
+      <c r="C83" t="s">
+        <v>789</v>
+      </c>
+      <c r="D83" t="s">
+        <v>790</v>
+      </c>
+      <c r="E83" t="s">
+        <v>791</v>
+      </c>
+      <c r="F83" t="s">
+        <v>369</v>
+      </c>
+      <c r="G83" t="s">
+        <v>792</v>
+      </c>
+      <c r="H83" t="s">
+        <v>793</v>
+      </c>
+      <c r="I83" t="s">
+        <v>794</v>
+      </c>
+      <c r="J83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>796</v>
+      </c>
+      <c r="B84" t="s">
+        <v>797</v>
+      </c>
+      <c r="C84" t="s">
+        <v>798</v>
+      </c>
+      <c r="D84" t="s">
+        <v>799</v>
+      </c>
+      <c r="E84" t="s">
+        <v>800</v>
+      </c>
+      <c r="F84" t="s">
+        <v>397</v>
+      </c>
+      <c r="G84" t="s">
+        <v>801</v>
+      </c>
+      <c r="H84" t="s">
+        <v>802</v>
+      </c>
+      <c r="I84" t="s">
+        <v>803</v>
+      </c>
+      <c r="J84" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>805</v>
+      </c>
+      <c r="B85" t="s">
+        <v>806</v>
+      </c>
+      <c r="C85" t="s">
+        <v>807</v>
+      </c>
+      <c r="D85" t="s">
+        <v>808</v>
+      </c>
+      <c r="E85" t="s">
+        <v>809</v>
+      </c>
+      <c r="F85" t="s">
+        <v>397</v>
+      </c>
+      <c r="G85" t="s">
+        <v>810</v>
+      </c>
+      <c r="H85" t="s">
+        <v>811</v>
+      </c>
+      <c r="I85" t="s">
+        <v>812</v>
+      </c>
+      <c r="J85" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>814</v>
+      </c>
+      <c r="B86" t="s">
+        <v>815</v>
+      </c>
+      <c r="C86" t="s">
+        <v>816</v>
+      </c>
+      <c r="D86" t="s">
+        <v>817</v>
+      </c>
+      <c r="E86" t="s">
+        <v>818</v>
+      </c>
+      <c r="F86" t="s">
+        <v>651</v>
+      </c>
+      <c r="G86" t="s">
+        <v>819</v>
+      </c>
+      <c r="H86" t="s">
+        <v>820</v>
+      </c>
+      <c r="I86" t="s">
+        <v>821</v>
+      </c>
+      <c r="J86" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>823</v>
+      </c>
+      <c r="B87" t="s">
+        <v>824</v>
+      </c>
+      <c r="C87" t="s">
+        <v>825</v>
+      </c>
+      <c r="D87" t="s">
+        <v>826</v>
+      </c>
+      <c r="E87" t="s">
+        <v>827</v>
+      </c>
+      <c r="F87" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" t="s">
+        <v>828</v>
+      </c>
+      <c r="H87" t="s">
+        <v>829</v>
+      </c>
+      <c r="I87" t="s">
+        <v>830</v>
+      </c>
+      <c r="J87" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>832</v>
+      </c>
+      <c r="B88" t="s">
+        <v>833</v>
+      </c>
+      <c r="C88" t="s">
+        <v>834</v>
+      </c>
+      <c r="D88" t="s">
+        <v>835</v>
+      </c>
+      <c r="E88" t="s">
+        <v>836</v>
+      </c>
+      <c r="F88" t="s">
+        <v>837</v>
+      </c>
+      <c r="G88" t="s">
+        <v>838</v>
+      </c>
+      <c r="H88" t="s">
+        <v>839</v>
+      </c>
+      <c r="I88" t="s">
+        <v>840</v>
+      </c>
+      <c r="J88" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>842</v>
+      </c>
+      <c r="B89" t="s">
+        <v>843</v>
+      </c>
+      <c r="C89" t="s">
+        <v>844</v>
+      </c>
+      <c r="D89" t="s">
+        <v>845</v>
+      </c>
+      <c r="E89" t="s">
+        <v>846</v>
+      </c>
+      <c r="F89" t="s">
+        <v>105</v>
+      </c>
+      <c r="G89" t="s">
+        <v>847</v>
+      </c>
+      <c r="H89" t="s">
+        <v>848</v>
+      </c>
+      <c r="I89" t="s">
+        <v>849</v>
+      </c>
+      <c r="J89" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>851</v>
+      </c>
+      <c r="B90" t="s">
+        <v>852</v>
+      </c>
+      <c r="C90" t="s">
+        <v>853</v>
+      </c>
+      <c r="D90" t="s">
+        <v>854</v>
+      </c>
+      <c r="E90" t="s">
+        <v>855</v>
+      </c>
+      <c r="F90" t="s">
+        <v>856</v>
+      </c>
+      <c r="G90" t="s">
+        <v>857</v>
+      </c>
+      <c r="H90" t="s">
+        <v>858</v>
+      </c>
+      <c r="I90" t="s">
+        <v>859</v>
+      </c>
+      <c r="J90" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>861</v>
+      </c>
+      <c r="B91" t="s">
+        <v>862</v>
+      </c>
+      <c r="C91" t="s">
+        <v>863</v>
+      </c>
+      <c r="D91" t="s">
+        <v>864</v>
+      </c>
+      <c r="E91" t="s">
+        <v>865</v>
+      </c>
+      <c r="F91" t="s">
+        <v>856</v>
+      </c>
+      <c r="G91" t="s">
+        <v>866</v>
+      </c>
+      <c r="H91" t="s">
+        <v>867</v>
+      </c>
+      <c r="I91" t="s">
+        <v>868</v>
+      </c>
+      <c r="J91" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>870</v>
+      </c>
+      <c r="B92" t="s">
+        <v>871</v>
+      </c>
+      <c r="C92" t="s">
+        <v>872</v>
+      </c>
+      <c r="D92" t="s">
+        <v>873</v>
+      </c>
+      <c r="E92" t="s">
+        <v>874</v>
+      </c>
+      <c r="F92" t="s">
+        <v>291</v>
+      </c>
+      <c r="G92" t="s">
+        <v>875</v>
+      </c>
+      <c r="H92" t="s">
+        <v>876</v>
+      </c>
+      <c r="I92" t="s">
+        <v>877</v>
+      </c>
+      <c r="J92" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>879</v>
+      </c>
+      <c r="B93" t="s">
+        <v>880</v>
+      </c>
+      <c r="C93" t="s">
+        <v>881</v>
+      </c>
+      <c r="D93" t="s">
+        <v>882</v>
+      </c>
+      <c r="E93" t="s">
+        <v>883</v>
+      </c>
+      <c r="F93" t="s">
+        <v>500</v>
+      </c>
+      <c r="G93" t="s">
+        <v>884</v>
+      </c>
+      <c r="H93" t="s">
+        <v>885</v>
+      </c>
+      <c r="I93" t="s">
+        <v>886</v>
+      </c>
+      <c r="J93" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>888</v>
+      </c>
+      <c r="B94" t="s">
+        <v>889</v>
+      </c>
+      <c r="C94" t="s">
+        <v>890</v>
+      </c>
+      <c r="D94" t="s">
+        <v>891</v>
+      </c>
+      <c r="E94" t="s">
+        <v>892</v>
+      </c>
+      <c r="F94" t="s">
+        <v>893</v>
+      </c>
+      <c r="G94" t="s">
+        <v>894</v>
+      </c>
+      <c r="H94" t="s">
+        <v>895</v>
+      </c>
+      <c r="I94" t="s">
+        <v>896</v>
+      </c>
+      <c r="J94" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>898</v>
+      </c>
+      <c r="B95" t="s">
+        <v>899</v>
+      </c>
+      <c r="C95" t="s">
+        <v>900</v>
+      </c>
+      <c r="D95" t="s">
+        <v>901</v>
+      </c>
+      <c r="E95" t="s">
+        <v>902</v>
+      </c>
+      <c r="F95" t="s">
+        <v>397</v>
+      </c>
+      <c r="G95" t="s">
+        <v>903</v>
+      </c>
+      <c r="H95" t="s">
+        <v>904</v>
+      </c>
+      <c r="I95" t="s">
+        <v>905</v>
+      </c>
+      <c r="J95" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>907</v>
+      </c>
+      <c r="B96" t="s">
+        <v>908</v>
+      </c>
+      <c r="C96" t="s">
+        <v>909</v>
+      </c>
+      <c r="D96" t="s">
+        <v>910</v>
+      </c>
+      <c r="E96" t="s">
+        <v>911</v>
+      </c>
+      <c r="F96" t="s">
+        <v>912</v>
+      </c>
+      <c r="G96" t="s">
+        <v>913</v>
+      </c>
+      <c r="H96" t="s">
+        <v>914</v>
+      </c>
+      <c r="I96" t="s">
+        <v>915</v>
+      </c>
+      <c r="J96" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>917</v>
+      </c>
+      <c r="B97" t="s">
+        <v>918</v>
+      </c>
+      <c r="C97" t="s">
+        <v>919</v>
+      </c>
+      <c r="D97" t="s">
+        <v>920</v>
+      </c>
+      <c r="E97" t="s">
+        <v>921</v>
+      </c>
+      <c r="F97" t="s">
+        <v>251</v>
+      </c>
+      <c r="G97" t="s">
+        <v>922</v>
+      </c>
+      <c r="H97" t="s">
+        <v>923</v>
+      </c>
+      <c r="I97" t="s">
+        <v>924</v>
+      </c>
+      <c r="J97" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>926</v>
+      </c>
+      <c r="B98" t="s">
+        <v>927</v>
+      </c>
+      <c r="C98" t="s">
+        <v>928</v>
+      </c>
+      <c r="D98" t="s">
+        <v>929</v>
+      </c>
+      <c r="E98" t="s">
+        <v>930</v>
+      </c>
+      <c r="F98" t="s">
+        <v>281</v>
+      </c>
+      <c r="G98" t="s">
+        <v>931</v>
+      </c>
+      <c r="H98" t="s">
+        <v>932</v>
+      </c>
+      <c r="I98" t="s">
+        <v>933</v>
+      </c>
+      <c r="J98" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>935</v>
+      </c>
+      <c r="B99" t="s">
+        <v>936</v>
+      </c>
+      <c r="C99" t="s">
+        <v>937</v>
+      </c>
+      <c r="D99" t="s">
+        <v>938</v>
+      </c>
+      <c r="E99" t="s">
+        <v>939</v>
+      </c>
+      <c r="F99" t="s">
+        <v>940</v>
+      </c>
+      <c r="G99" t="s">
+        <v>941</v>
+      </c>
+      <c r="H99" t="s">
+        <v>942</v>
+      </c>
+      <c r="I99" t="s">
+        <v>943</v>
+      </c>
+      <c r="J99" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>945</v>
+      </c>
+      <c r="B100" t="s">
+        <v>946</v>
+      </c>
+      <c r="C100" t="s">
+        <v>947</v>
+      </c>
+      <c r="D100" t="s">
+        <v>948</v>
+      </c>
+      <c r="E100" t="s">
+        <v>949</v>
+      </c>
+      <c r="F100" t="s">
+        <v>651</v>
+      </c>
+      <c r="G100" t="s">
+        <v>950</v>
+      </c>
+      <c r="H100" t="s">
+        <v>951</v>
+      </c>
+      <c r="I100" t="s">
+        <v>952</v>
+      </c>
+      <c r="J100" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>954</v>
+      </c>
+      <c r="B101" t="s">
+        <v>955</v>
+      </c>
+      <c r="C101" t="s">
+        <v>956</v>
+      </c>
+      <c r="D101" t="s">
+        <v>957</v>
+      </c>
+      <c r="E101" t="s">
+        <v>958</v>
+      </c>
+      <c r="F101" t="s">
+        <v>912</v>
+      </c>
+      <c r="G101" t="s">
+        <v>959</v>
+      </c>
+      <c r="H101" t="s">
+        <v>960</v>
+      </c>
+      <c r="I101" t="s">
+        <v>961</v>
+      </c>
+      <c r="J101" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>963</v>
+      </c>
+      <c r="B102" t="s">
+        <v>964</v>
+      </c>
+      <c r="C102" t="s">
+        <v>965</v>
+      </c>
+      <c r="D102" t="s">
+        <v>966</v>
+      </c>
+      <c r="E102" t="s">
+        <v>967</v>
+      </c>
+      <c r="F102" t="s">
+        <v>231</v>
+      </c>
+      <c r="G102" t="s">
+        <v>968</v>
+      </c>
+      <c r="H102" t="s">
+        <v>969</v>
+      </c>
+      <c r="I102" t="s">
+        <v>970</v>
+      </c>
+      <c r="J102" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>972</v>
+      </c>
+      <c r="B103" t="s">
+        <v>973</v>
+      </c>
+      <c r="C103" t="s">
+        <v>974</v>
+      </c>
+      <c r="D103" t="s">
+        <v>975</v>
+      </c>
+      <c r="E103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F103" t="s">
+        <v>281</v>
+      </c>
+      <c r="G103" t="s">
+        <v>977</v>
+      </c>
+      <c r="H103" t="s">
+        <v>978</v>
+      </c>
+      <c r="I103" t="s">
+        <v>979</v>
+      </c>
+      <c r="J103" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>981</v>
+      </c>
+      <c r="B104" t="s">
+        <v>982</v>
+      </c>
+      <c r="C104" t="s">
+        <v>983</v>
+      </c>
+      <c r="D104" t="s">
+        <v>984</v>
+      </c>
+      <c r="E104" t="s">
+        <v>985</v>
+      </c>
+      <c r="F104" t="s">
+        <v>986</v>
+      </c>
+      <c r="G104" t="s">
+        <v>987</v>
+      </c>
+      <c r="H104" t="s">
+        <v>988</v>
+      </c>
+      <c r="I104" t="s">
+        <v>989</v>
+      </c>
+      <c r="J104" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>991</v>
+      </c>
+      <c r="B105" t="s">
+        <v>992</v>
+      </c>
+      <c r="C105" t="s">
+        <v>993</v>
+      </c>
+      <c r="D105" t="s">
+        <v>994</v>
+      </c>
+      <c r="E105" t="s">
+        <v>995</v>
+      </c>
+      <c r="F105" t="s">
+        <v>651</v>
+      </c>
+      <c r="G105" t="s">
+        <v>996</v>
+      </c>
+      <c r="H105" t="s">
+        <v>997</v>
+      </c>
+      <c r="I105" t="s">
+        <v>998</v>
+      </c>
+      <c r="J105" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F106" t="s">
+        <v>773</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F107" t="s">
+        <v>163</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F108" t="s">
+        <v>310</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F109" t="s">
+        <v>773</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F110" t="s">
+        <v>183</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F113" t="s">
+        <v>837</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F115" t="s">
+        <v>940</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F116" t="s">
+        <v>651</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F118" t="s">
+        <v>445</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F122" t="s">
+        <v>397</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F123" t="s">
+        <v>397</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F124" t="s">
+        <v>407</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F125" t="s">
+        <v>291</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F127" t="s">
+        <v>251</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F128" t="s">
+        <v>856</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F129" t="s">
+        <v>573</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F130" t="s">
+        <v>143</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F131" t="s">
+        <v>837</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F132" t="s">
+        <v>397</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F133" t="s">
+        <v>445</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F134" t="s">
+        <v>445</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F135" t="s">
+        <v>281</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F136" t="s">
+        <v>651</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F137" t="s">
+        <v>445</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F138" t="s">
+        <v>631</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F139" t="s">
+        <v>837</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F141" t="s">
+        <v>940</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F142" t="s">
+        <v>856</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F143" t="s">
+        <v>105</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F144" t="s">
+        <v>330</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F145" t="s">
+        <v>281</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F146" t="s">
+        <v>397</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F149" t="s">
+        <v>173</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F150" t="s">
+        <v>631</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F151" t="s">
+        <v>912</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
